--- a/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 56_it_IT.xlsx
+++ b/inputs/VolumesExcel/it_IT/Paesi Bassi VOLUME 56_it_IT.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N575"/>
+  <dimension ref="A1:O575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
@@ -518,10 +518,15 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>ms331_title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Archivio della Legazione dei Paesi Bassi a Roma e a Torino. Corrispondenza diplomatica</t>
         </is>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -533,10 +538,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ms331_title</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Archivio della Legazione dei Paesi Bassi a Roma e a Torino. Corrispondenza diplomatica</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -546,7 +556,12 @@
           <t>ms331_48_00</t>
         </is>
       </c>
-      <c r="J3" s="10" t="n"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ms331_48_00</t>
+        </is>
+      </c>
+      <c r="K3" s="10" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -556,10 +571,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ms331_48_1_title</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Legazione di Roma. Corrispondenza diplomatica in partenza</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -569,12 +589,17 @@
           <t>ms331_48_1_00</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ms331_48_1_00</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Legazione di Roma. 1862. Corrispondenza diplomatica in partenza</t>
         </is>
       </c>
-      <c r="J5" s="10" t="n"/>
+      <c r="K5" s="10" t="n"/>
     </row>
     <row r="6" ht="15.5" customHeight="1" s="8">
       <c r="A6" t="inlineStr">
@@ -582,31 +607,36 @@
           <t>ms331_48_1_1</t>
         </is>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ms331_48_1_1</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Strens</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1862</v>
-      </c>
       <c r="D6" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -618,31 +648,36 @@
           <t>ms331_48_1_2</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ms331_48_1_2</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Strens</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1862</v>
-      </c>
       <c r="D7" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>4</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -654,31 +689,36 @@
           <t>ms331_48_1_3</t>
         </is>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ms331_48_1_3</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Strens</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1862</v>
-      </c>
       <c r="D8" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -690,26 +730,31 @@
           <t>ms331_48_1_4</t>
         </is>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ms331_48_1_4</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Trascrizione della risposta del $Gojon al $PioIX</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1862</v>
-      </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>1862</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>$Gojon</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>$PioIX</t>
         </is>
@@ -721,31 +766,36 @@
           <t>ms331_48_1_5</t>
         </is>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ms331_48_1_5</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $RaguettiC</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1862</v>
-      </c>
       <c r="D10" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>8</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>$RaguettiC</t>
         </is>
@@ -757,31 +807,36 @@
           <t>ms331_48_1_6</t>
         </is>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ms331_48_1_6</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Strens</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1862</v>
-      </c>
       <c r="D11" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>20</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -793,31 +848,36 @@
           <t>ms331_48_1_7</t>
         </is>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ms331_48_1_7</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Strens</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1862</v>
-      </c>
       <c r="D12" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>25</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -829,31 +889,36 @@
           <t>ms331_48_1_8</t>
         </is>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ms331_48_1_8</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Strens</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1862</v>
-      </c>
       <c r="D13" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>31</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -865,31 +930,36 @@
           <t>ms331_48_1_9</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ms331_48_1_9</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Baldini</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1862</v>
-      </c>
       <c r="D14" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>$Baldini</t>
         </is>
@@ -901,31 +971,36 @@
           <t>ms331_48_1_10</t>
         </is>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ms331_48_1_10</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Strens</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>1862</v>
-      </c>
       <c r="D15" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -937,31 +1012,36 @@
           <t>ms331_48_1_11</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ms331_48_1_11</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Stratenus</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1862</v>
-      </c>
       <c r="D16" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>14</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>$Stratenus</t>
         </is>
@@ -973,31 +1053,36 @@
           <t>ms331_48_1_12</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ms331_48_1_12</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Stratenus</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1862</v>
-      </c>
       <c r="D17" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>15</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>$Stratenus</t>
         </is>
@@ -1009,31 +1094,36 @@
           <t>ms331_48_1_13</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ms331_48_1_13</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Stratenus</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1862</v>
-      </c>
       <c r="D18" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>22</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>$Stratenus</t>
         </is>
@@ -1045,31 +1135,36 @@
           <t>ms331_48_1_14</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ms331_48_1_13</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Stratenus</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1862</v>
-      </c>
       <c r="D19" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>22</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>$Stratenus</t>
         </is>
@@ -1081,31 +1176,36 @@
           <t>ms331_48_1_15</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ms331_48_1_15</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Stratenus</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1862</v>
-      </c>
       <c r="D20" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E20" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>8</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>$Stratenus</t>
         </is>
@@ -1117,31 +1217,36 @@
           <t>ms331_48_1_16</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ms331_48_1_16</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Stratenus</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>1862</v>
-      </c>
       <c r="D21" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E21" t="n">
         <v>3</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>15</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>$Stratenus</t>
         </is>
@@ -1153,31 +1258,36 @@
           <t>ms331_48_1_17</t>
         </is>
       </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ms331_48_1_17</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1862</v>
-      </c>
       <c r="D22" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E22" t="n">
         <v>3</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>21</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1189,31 +1299,36 @@
           <t>ms331_48_1_18</t>
         </is>
       </c>
-      <c r="B23" s="9" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ms331_48_1_18</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>1862</v>
-      </c>
       <c r="D23" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>22</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1225,31 +1340,36 @@
           <t>ms331_48_1_19</t>
         </is>
       </c>
-      <c r="B24" s="9" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ms331_48_1_19</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $ArataL</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>1862</v>
-      </c>
       <c r="D24" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>23</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -1261,31 +1381,36 @@
           <t>ms331_48_1_20</t>
         </is>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ms331_48_1_20</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1862</v>
-      </c>
       <c r="D25" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E25" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>29</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1297,31 +1422,36 @@
           <t>ms331_48_1_21</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ms331_48_1_20</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1862</v>
-      </c>
       <c r="D26" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E26" t="n">
         <v>3</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>29</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1333,31 +1463,36 @@
           <t>ms331_48_1_22</t>
         </is>
       </c>
-      <c r="B27" s="9" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ms331_48_1_22</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Baldini</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1862</v>
-      </c>
       <c r="D27" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E27" t="n">
         <v>3</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>31</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>$Baldini</t>
         </is>
@@ -1369,31 +1504,36 @@
           <t>ms331_48_1_23</t>
         </is>
       </c>
-      <c r="B28" s="9" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ms331_48_1_23</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>1862</v>
-      </c>
       <c r="D28" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E28" t="n">
         <v>4</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1405,31 +1545,36 @@
           <t>ms331_48_1_24</t>
         </is>
       </c>
-      <c r="B29" s="9" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ms331_48_1_24</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>1862</v>
-      </c>
       <c r="D29" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E29" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>5</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1441,31 +1586,36 @@
           <t>ms331_48_1_25</t>
         </is>
       </c>
-      <c r="B30" s="9" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ms331_48_1_25</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1862</v>
-      </c>
       <c r="D30" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E30" t="n">
         <v>4</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>8</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1477,31 +1627,36 @@
           <t>ms331_48_1_26</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ms331_48_1_26</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1862</v>
-      </c>
       <c r="D31" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E31" t="n">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>12</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1513,31 +1668,36 @@
           <t>ms331_48_1_27</t>
         </is>
       </c>
-      <c r="B32" s="9" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ms331_48_1_27</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1862</v>
-      </c>
       <c r="D32" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E32" t="n">
         <v>4</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>15</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1549,31 +1709,36 @@
           <t>ms331_48_1_28</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ms331_48_1_28</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>1862</v>
-      </c>
       <c r="D33" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E33" t="n">
         <v>4</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>25</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1585,31 +1750,36 @@
           <t>ms331_48_1_29</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ms331_48_1_29</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1862</v>
-      </c>
       <c r="D34" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E34" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>26</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1621,31 +1791,36 @@
           <t>ms331_48_1_30</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ms331_48_1_30</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>1862</v>
-      </c>
       <c r="D35" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E35" t="n">
         <v>5</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>3</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1657,31 +1832,36 @@
           <t>ms331_48_1_31</t>
         </is>
       </c>
-      <c r="B36" s="9" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ms331_48_1_31</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>1862</v>
-      </c>
       <c r="D36" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E36" t="n">
         <v>5</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>6</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1693,31 +1873,36 @@
           <t>ms331_48_1_32</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ms331_48_1_32</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1862</v>
-      </c>
       <c r="D37" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E37" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>10</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1729,31 +1914,36 @@
           <t>ms331_48_1_33</t>
         </is>
       </c>
-      <c r="B38" s="9" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ms331_48_1_33</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Antonelli</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1862</v>
-      </c>
       <c r="D38" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E38" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>12</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
@@ -1765,31 +1955,36 @@
           <t>ms331_48_1_34</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ms331_48_1_33</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Antonelli</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>1862</v>
-      </c>
       <c r="D39" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E39" t="n">
         <v>5</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>12</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
@@ -1801,31 +1996,36 @@
           <t>ms331_48_1_35</t>
         </is>
       </c>
-      <c r="B40" s="9" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ms331_48_1_35</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Antonelli</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>1862</v>
-      </c>
       <c r="D40" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E40" t="n">
         <v>5</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>14</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
@@ -1837,31 +2037,36 @@
           <t>ms331_48_1_36</t>
         </is>
       </c>
-      <c r="B41" s="9" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ms331_48_1_36</t>
+        </is>
+      </c>
+      <c r="C41" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1862</v>
-      </c>
       <c r="D41" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>17</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1873,31 +2078,36 @@
           <t>ms331_48_1_37</t>
         </is>
       </c>
-      <c r="B42" s="9" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ms331_48_1_37</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1862</v>
-      </c>
       <c r="D42" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E42" t="n">
         <v>5</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>23</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1909,31 +2119,36 @@
           <t>ms331_48_1_38</t>
         </is>
       </c>
-      <c r="B43" s="9" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ms331_48_1_38</t>
+        </is>
+      </c>
+      <c r="C43" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>1862</v>
-      </c>
       <c r="D43" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E43" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>24</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1945,31 +2160,36 @@
           <t>ms331_48_1_39</t>
         </is>
       </c>
-      <c r="B44" s="9" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ms331_48_1_39</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>1862</v>
-      </c>
       <c r="D44" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E44" t="n">
         <v>5</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>31</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -1981,31 +2201,36 @@
           <t>ms331_48_1_40</t>
         </is>
       </c>
-      <c r="B45" s="9" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ms331_48_1_39</t>
+        </is>
+      </c>
+      <c r="C45" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>1862</v>
-      </c>
       <c r="D45" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E45" t="n">
         <v>5</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>31</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2017,31 +2242,36 @@
           <t>ms331_48_1_41</t>
         </is>
       </c>
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ms331_48_1_41</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>1862</v>
-      </c>
       <c r="D46" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E46" t="n">
         <v>6</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>7</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2053,31 +2283,36 @@
           <t>ms331_48_1_42</t>
         </is>
       </c>
-      <c r="B47" s="9" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ms331_48_1_41</t>
+        </is>
+      </c>
+      <c r="C47" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1862</v>
-      </c>
       <c r="D47" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E47" t="n">
         <v>6</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>7</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2089,31 +2324,36 @@
           <t>ms331_48_1_43</t>
         </is>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ms331_48_1_43</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1862</v>
-      </c>
       <c r="D48" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E48" t="n">
         <v>6</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>9</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2125,31 +2365,36 @@
           <t>ms331_48_1_44</t>
         </is>
       </c>
-      <c r="B49" s="9" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ms331_48_1_44</t>
+        </is>
+      </c>
+      <c r="C49" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1862</v>
-      </c>
       <c r="D49" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E49" t="n">
         <v>6</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>12</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2161,31 +2406,36 @@
           <t>ms331_48_1_45</t>
         </is>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ms331_48_1_45</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>1862</v>
-      </c>
       <c r="D50" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E50" t="n">
         <v>6</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>14</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2197,31 +2447,36 @@
           <t>ms331_48_1_46</t>
         </is>
       </c>
-      <c r="B51" s="9" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ms331_48_1_45</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>1862</v>
-      </c>
       <c r="D51" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E51" t="n">
         <v>6</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>14</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2233,31 +2488,36 @@
           <t>ms331_48_1_47</t>
         </is>
       </c>
-      <c r="B52" s="9" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ms331_48_1_47</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1862</v>
-      </c>
       <c r="D52" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E52" t="n">
         <v>6</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>19</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2269,31 +2529,36 @@
           <t>ms331_48_1_48</t>
         </is>
       </c>
-      <c r="B53" s="9" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ms331_48_1_48</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1862</v>
-      </c>
       <c r="D53" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E53" t="n">
         <v>6</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>28</v>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2305,31 +2570,36 @@
           <t>ms331_48_1_49</t>
         </is>
       </c>
-      <c r="B54" s="9" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ms331_48_1_48</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>1862</v>
-      </c>
       <c r="D54" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>28</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2341,31 +2611,36 @@
           <t>ms331_48_1_50</t>
         </is>
       </c>
-      <c r="B55" s="9" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ms331_48_1_50</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>1862</v>
-      </c>
       <c r="D55" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>11</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2377,31 +2652,36 @@
           <t>ms331_48_1_51</t>
         </is>
       </c>
-      <c r="B56" s="9" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ms331_48_1_51</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>1862</v>
-      </c>
       <c r="D56" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E56" t="n">
         <v>7</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>5</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2413,31 +2693,36 @@
           <t>ms331_48_1_52</t>
         </is>
       </c>
-      <c r="B57" s="9" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ms331_48_1_52</t>
+        </is>
+      </c>
+      <c r="C57" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1862</v>
-      </c>
       <c r="D57" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E57" t="n">
         <v>7</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>12</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2449,31 +2734,36 @@
           <t>ms331_48_1_53</t>
         </is>
       </c>
-      <c r="B58" s="9" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ms331_48_1_53</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>1862</v>
-      </c>
       <c r="D58" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E58" t="n">
         <v>7</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>19</v>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2485,31 +2775,36 @@
           <t>ms331_48_1_54</t>
         </is>
       </c>
-      <c r="B59" s="9" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ms331_48_1_54</t>
+        </is>
+      </c>
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>1862</v>
-      </c>
       <c r="D59" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E59" t="n">
         <v>7</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>22</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2521,31 +2816,36 @@
           <t>ms331_48_1_55</t>
         </is>
       </c>
-      <c r="B60" s="9" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ms331_48_1_55</t>
+        </is>
+      </c>
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>1862</v>
-      </c>
       <c r="D60" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E60" t="n">
         <v>7</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>26</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2557,31 +2857,36 @@
           <t>ms331_48_1_56</t>
         </is>
       </c>
-      <c r="B61" s="9" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ms331_48_1_56</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1862</v>
-      </c>
       <c r="D61" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E61" t="n">
         <v>8</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>2</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2593,31 +2898,36 @@
           <t>ms331_48_1_57</t>
         </is>
       </c>
-      <c r="B62" s="9" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ms331_48_1_57</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>1862</v>
-      </c>
       <c r="D62" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E62" t="n">
         <v>8</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>9</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2629,31 +2939,36 @@
           <t>ms331_48_1_58</t>
         </is>
       </c>
-      <c r="B63" s="9" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ms331_48_1_58</t>
+        </is>
+      </c>
+      <c r="C63" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1862</v>
-      </c>
       <c r="D63" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E63" t="n">
         <v>8</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>12</v>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2665,31 +2980,36 @@
           <t>ms331_48_1_59</t>
         </is>
       </c>
-      <c r="B64" s="9" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ms331_48_1_59</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1862</v>
-      </c>
       <c r="D64" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E64" t="n">
         <v>8</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>16</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2701,31 +3021,36 @@
           <t>ms331_48_1_60</t>
         </is>
       </c>
-      <c r="B65" s="9" t="inlineStr">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ms331_48_1_60</t>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $ArataL</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>1862</v>
-      </c>
       <c r="D65" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E65" t="n">
         <v>8</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>18</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -2737,31 +3062,36 @@
           <t>ms331_48_1_61</t>
         </is>
       </c>
-      <c r="B66" s="9" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ms331_48_1_61</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>1862</v>
-      </c>
       <c r="D66" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E66" t="n">
         <v>8</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>23</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2773,31 +3103,36 @@
           <t>ms331_48_1_62</t>
         </is>
       </c>
-      <c r="B67" s="9" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ms331_48_1_62</t>
+        </is>
+      </c>
+      <c r="C67" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>1862</v>
-      </c>
       <c r="D67" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E67" t="n">
         <v>8</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>26</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2809,31 +3144,36 @@
           <t>ms331_48_1_63</t>
         </is>
       </c>
-      <c r="B68" s="9" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ms331_48_1_63</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>1862</v>
-      </c>
       <c r="D68" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E68" t="n">
         <v>8</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>30</v>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2845,31 +3185,36 @@
           <t>ms331_48_1_64</t>
         </is>
       </c>
-      <c r="B69" s="9" t="inlineStr">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ms331_48_1_64</t>
+        </is>
+      </c>
+      <c r="C69" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>1862</v>
-      </c>
       <c r="D69" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E69" t="n">
         <v>9</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>2</v>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2881,31 +3226,36 @@
           <t>ms331_48_1_65</t>
         </is>
       </c>
-      <c r="B70" s="9" t="inlineStr">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ms331_48_1_65</t>
+        </is>
+      </c>
+      <c r="C70" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>1862</v>
-      </c>
       <c r="D70" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>13</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="G70" s="10" t="inlineStr">
-        <is>
-          <t>$Chastel</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H70" s="10" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2917,31 +3267,36 @@
           <t>ms331_48_1_66</t>
         </is>
       </c>
-      <c r="B71" s="9" t="inlineStr">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ms331_48_1_66</t>
+        </is>
+      </c>
+      <c r="C71" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>1862</v>
-      </c>
       <c r="D71" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E71" t="n">
         <v>9</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>20</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2953,31 +3308,36 @@
           <t>ms331_48_1_67</t>
         </is>
       </c>
-      <c r="B72" s="9" t="inlineStr">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ms331_48_1_67</t>
+        </is>
+      </c>
+      <c r="C72" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>1862</v>
-      </c>
       <c r="D72" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E72" t="n">
         <v>9</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>27</v>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -2989,31 +3349,36 @@
           <t>ms331_48_1_68</t>
         </is>
       </c>
-      <c r="B73" s="9" t="inlineStr">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ms331_48_1_68</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>1862</v>
-      </c>
       <c r="D73" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E73" t="n">
         <v>10</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>4</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3025,31 +3390,36 @@
           <t>ms331_48_1_69</t>
         </is>
       </c>
-      <c r="B74" s="9" t="inlineStr">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ms331_48_1_69</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>1862</v>
-      </c>
       <c r="D74" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E74" t="n">
         <v>10</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>11</v>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3061,31 +3431,36 @@
           <t>ms331_48_1_70</t>
         </is>
       </c>
-      <c r="B75" s="9" t="inlineStr">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ms331_48_1_70</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>1862</v>
-      </c>
       <c r="D75" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E75" t="n">
         <v>10</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>18</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3097,31 +3472,36 @@
           <t>ms331_48_1_71</t>
         </is>
       </c>
-      <c r="B76" s="9" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ms331_48_1_71</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>1862</v>
-      </c>
       <c r="D76" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E76" t="n">
         <v>10</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>25</v>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3133,31 +3513,36 @@
           <t>ms331_48_1_72</t>
         </is>
       </c>
-      <c r="B77" s="9" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ms331_48_1_72</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>1862</v>
-      </c>
       <c r="D77" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E77" t="n">
         <v>10</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>31</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3169,31 +3554,36 @@
           <t>ms331_48_1_73</t>
         </is>
       </c>
-      <c r="B78" s="9" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ms331_48_1_73</t>
+        </is>
+      </c>
+      <c r="C78" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>1862</v>
-      </c>
       <c r="D78" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E78" t="n">
         <v>11</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>14</v>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3205,31 +3595,36 @@
           <t>ms331_48_1_74</t>
         </is>
       </c>
-      <c r="B79" s="9" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ms331_48_1_74</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $ArataL</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>1862</v>
-      </c>
       <c r="D79" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E79" t="n">
         <v>11</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>20</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -3241,28 +3636,33 @@
           <t>ms331_48_1_75</t>
         </is>
       </c>
-      <c r="B80" s="9" t="inlineStr">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ms331_48_1_75</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Antonelli</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>1862</v>
-      </c>
       <c r="D80" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E80" t="n">
         <v>11</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
@@ -3274,31 +3674,36 @@
           <t>ms331_48_1_76</t>
         </is>
       </c>
-      <c r="B81" s="9" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ms331_48_1_76</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $ArataL</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>1862</v>
-      </c>
       <c r="D81" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E81" t="n">
         <v>11</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>20</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -3310,31 +3715,36 @@
           <t>ms331_48_1_77</t>
         </is>
       </c>
-      <c r="B82" s="9" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ms331_48_1_77</t>
+        </is>
+      </c>
+      <c r="C82" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>1862</v>
-      </c>
       <c r="D82" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E82" t="n">
         <v>11</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>22</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3346,31 +3756,36 @@
           <t>ms331_48_1_78</t>
         </is>
       </c>
-      <c r="B83" s="9" t="inlineStr">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ms331_48_1_78</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $ArataL</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>1862</v>
-      </c>
       <c r="D83" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E83" t="n">
         <v>11</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>24</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>$ArataL</t>
         </is>
@@ -3382,31 +3797,36 @@
           <t>ms331_48_1_79</t>
         </is>
       </c>
-      <c r="B84" s="9" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ms331_48_1_79</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Goltz</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>1862</v>
-      </c>
       <c r="D84" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E84" t="n">
         <v>11</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>24</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>$Goltz</t>
         </is>
@@ -3418,31 +3838,36 @@
           <t>ms331_48_1_80</t>
         </is>
       </c>
-      <c r="B85" s="9" t="inlineStr">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ms331_48_1_80</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>1862</v>
-      </c>
       <c r="D85" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E85" t="n">
         <v>11</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>25</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3454,31 +3879,36 @@
           <t>ms331_48_1_81</t>
         </is>
       </c>
-      <c r="B86" s="9" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ms331_48_1_81</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>1862</v>
-      </c>
       <c r="D86" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E86" t="n">
         <v>11</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>26</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3490,31 +3920,36 @@
           <t>ms331_48_1_82</t>
         </is>
       </c>
-      <c r="B87" s="9" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ms331_48_1_82</t>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>1862</v>
-      </c>
       <c r="D87" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E87" t="n">
         <v>11</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>29</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3526,31 +3961,36 @@
           <t>ms331_48_1_83</t>
         </is>
       </c>
-      <c r="B88" s="9" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ms331_48_1_83</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>1862</v>
-      </c>
       <c r="D88" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E88" t="n">
         <v>12</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>6</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3562,31 +4002,36 @@
           <t>ms331_48_1_84</t>
         </is>
       </c>
-      <c r="B89" s="9" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ms331_48_1_84</t>
+        </is>
+      </c>
+      <c r="C89" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel al $Antonelli</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>1862</v>
-      </c>
       <c r="D89" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E89" t="n">
         <v>12</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>9</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>$Antonelli</t>
         </is>
@@ -3598,31 +4043,36 @@
           <t>ms331_48_1_85</t>
         </is>
       </c>
-      <c r="B90" s="9" t="inlineStr">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ms331_48_1_85</t>
+        </is>
+      </c>
+      <c r="C90" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>1862</v>
-      </c>
       <c r="D90" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E90" t="n">
         <v>12</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>13</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3634,31 +4084,36 @@
           <t>ms331_48_1_86</t>
         </is>
       </c>
-      <c r="B91" s="9" t="inlineStr">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ms331_48_1_86</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>1862</v>
-      </c>
       <c r="D91" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E91" t="n">
         <v>12</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>20</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3670,31 +4125,36 @@
           <t>ms331_48_1_87</t>
         </is>
       </c>
-      <c r="B92" s="9" t="inlineStr">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ms331_48_1_86</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>1862</v>
-      </c>
       <c r="D92" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E92" t="n">
         <v>12</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>20</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3706,31 +4166,36 @@
           <t>ms331_48_1_88</t>
         </is>
       </c>
-      <c r="B93" s="9" t="inlineStr">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ms331_48_1_88</t>
+        </is>
+      </c>
+      <c r="C93" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>1862</v>
-      </c>
       <c r="D93" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E93" t="n">
         <v>12</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>26</v>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3742,31 +4207,36 @@
           <t>ms331_48_1_89</t>
         </is>
       </c>
-      <c r="B94" s="9" t="inlineStr">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ms331_48_1_89</t>
+        </is>
+      </c>
+      <c r="C94" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>1862</v>
-      </c>
       <c r="D94" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E94" t="n">
         <v>12</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>27</v>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
+        <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3778,39 +4248,44 @@
           <t>ms331_48_1_90</t>
         </is>
       </c>
-      <c r="B95" s="9" t="inlineStr">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ms331_48_1_90</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera del $Chastel a $Maesen</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>1862</v>
-      </c>
       <c r="D95" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E95" t="n">
         <v>12</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>28</v>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>$Chastel</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
+          <t>$Chastel</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>$Maesen</t>
         </is>
       </c>
     </row>
     <row r="96" ht="15.5" customHeight="1" s="8">
-      <c r="B96" s="9" t="n"/>
-      <c r="J96" s="10" t="n"/>
+      <c r="C96" s="9" t="n"/>
+      <c r="K96" s="10" t="n"/>
     </row>
     <row r="97" ht="15.5" customHeight="1" s="8">
       <c r="A97" t="inlineStr">
@@ -3818,12 +4293,17 @@
           <t>ms331_48_2_title</t>
         </is>
       </c>
-      <c r="B97" s="9" t="inlineStr">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ms331_48_2_title</t>
+        </is>
+      </c>
+      <c r="C97" s="9" t="inlineStr">
         <is>
           <t>Legazione di Torino. Corrispondenza diplomatica</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -3833,12 +4313,17 @@
           <t>ms331_48_2_00</t>
         </is>
       </c>
-      <c r="B98" s="9" t="inlineStr">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ms331_48_2_00</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
         <is>
           <t>Legazione di Torino. Corrispondenza diplomatica</t>
         </is>
       </c>
-      <c r="J98" s="10" t="n"/>
+      <c r="K98" s="10" t="n"/>
     </row>
     <row r="99" ht="15.5" customHeight="1" s="8">
       <c r="A99" t="inlineStr">
@@ -3846,31 +4331,36 @@
           <t>ms331_48_2_91</t>
         </is>
       </c>
-      <c r="B99" s="9" t="inlineStr">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ms331_48_2_91</t>
+        </is>
+      </c>
+      <c r="C99" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>1862</v>
-      </c>
       <c r="D99" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E99" t="n">
         <v>1</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>12</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -3882,7 +4372,12 @@
           <t>ms331_48_2_92</t>
         </is>
       </c>
-      <c r="B100" s="9" t="inlineStr">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ms331_48_2_92</t>
+        </is>
+      </c>
+      <c r="C100" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -3894,31 +4389,36 @@
           <t>ms331_48_2_93</t>
         </is>
       </c>
-      <c r="B101" s="9" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ms331_48_2_93</t>
+        </is>
+      </c>
+      <c r="C101" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Fischer</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>1862</v>
-      </c>
       <c r="D101" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>8</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>$Fischer</t>
         </is>
@@ -3930,31 +4430,36 @@
           <t>ms331_48_2_94</t>
         </is>
       </c>
-      <c r="B102" s="9" t="inlineStr">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ms331_48_2_94</t>
+        </is>
+      </c>
+      <c r="C102" s="9" t="inlineStr">
         <is>
           <t>Lettera del $Ricasoli a $HeldewierII</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>1862</v>
-      </c>
       <c r="D102" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>9</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>$Ricasoli</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -3966,31 +4471,36 @@
           <t>ms331_48_2_95</t>
         </is>
       </c>
-      <c r="B103" s="9" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ms331_48_2_94</t>
+        </is>
+      </c>
+      <c r="C103" s="9" t="inlineStr">
         <is>
           <t>Lettera del $Ricasoli a $HeldewierII</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>1862</v>
-      </c>
       <c r="D103" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E103" t="n">
         <v>1</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>9</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>$Ricasoli</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4002,31 +4512,36 @@
           <t>ms331_48_2_96</t>
         </is>
       </c>
-      <c r="B104" s="9" t="inlineStr">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ms331_48_2_96</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Strens</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>1862</v>
-      </c>
       <c r="D104" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>10</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -4038,7 +4553,12 @@
           <t>ms331_48_2_97</t>
         </is>
       </c>
-      <c r="B105" s="9" t="inlineStr">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ms331_48_2_97</t>
+        </is>
+      </c>
+      <c r="C105" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4050,31 +4570,36 @@
           <t>ms331_48_2_98</t>
         </is>
       </c>
-      <c r="B106" s="9" t="inlineStr">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ms331_48_2_98</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Fischer a $HeldewierII</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>1862</v>
-      </c>
       <c r="D106" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>11</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>Genova</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>$Fischer</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4086,7 +4611,12 @@
           <t>ms331_48_2_99</t>
         </is>
       </c>
-      <c r="B107" s="9" t="inlineStr">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ms331_48_2_99</t>
+        </is>
+      </c>
+      <c r="C107" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4098,31 +4628,36 @@
           <t>ms331_48_2_100</t>
         </is>
       </c>
-      <c r="B108" s="9" t="inlineStr">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ms331_48_2_100</t>
+        </is>
+      </c>
+      <c r="C108" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>1862</v>
-      </c>
       <c r="D108" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E108" t="n">
         <v>1</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>20</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4134,31 +4669,36 @@
           <t>ms331_48_2_101</t>
         </is>
       </c>
-      <c r="B109" s="9" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ms331_48_2_100</t>
+        </is>
+      </c>
+      <c r="C109" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>1862</v>
-      </c>
       <c r="D109" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E109" t="n">
         <v>1</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>20</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4170,12 +4710,17 @@
           <t>ms331_48_2_102</t>
         </is>
       </c>
-      <c r="B110" s="5" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ms331_48_2_102</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
         <is>
           <t>Lettera alla Camera di Commercio e Fabbriche a Amsterdam</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -4185,12 +4730,17 @@
           <t>ms331_48_2_103</t>
         </is>
       </c>
-      <c r="B111" s="5" t="inlineStr">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ms331_48_2_102</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="inlineStr">
         <is>
           <t>Lettera alla Camera di Commercio e Fabbriche a Amsterdam</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -4200,31 +4750,36 @@
           <t>ms331_48_2_104</t>
         </is>
       </c>
-      <c r="B112" s="9" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ms331_48_2_104</t>
+        </is>
+      </c>
+      <c r="C112" s="9" t="inlineStr">
         <is>
           <t>Lettera del $Melegari a $HeldewierII su un manoscritto olandese nella Biblioteca dell'Università di Bologna</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>1862</v>
-      </c>
       <c r="D112" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E112" t="n">
         <v>3</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>25</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>$Melegari</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4236,12 +4791,17 @@
           <t>ms331_48_2_105</t>
         </is>
       </c>
-      <c r="B113" s="9" t="inlineStr">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ms331_48_2_105</t>
+        </is>
+      </c>
+      <c r="C113" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -4251,31 +4811,36 @@
           <t>ms331_48_2_106</t>
         </is>
       </c>
-      <c r="B114" s="9" t="inlineStr">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ms331_48_2_106</t>
+        </is>
+      </c>
+      <c r="C114" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>1862</v>
-      </c>
       <c r="D114" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E114" t="n">
         <v>4</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>17</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4287,31 +4852,36 @@
           <t>ms331_48_2_107</t>
         </is>
       </c>
-      <c r="B115" s="9" t="inlineStr">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ms331_48_2_106</t>
+        </is>
+      </c>
+      <c r="C115" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>1862</v>
-      </c>
       <c r="D115" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>17</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4323,31 +4893,36 @@
           <t>ms331_48_2_108</t>
         </is>
       </c>
-      <c r="B116" s="9" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ms331_48_2_106</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>1862</v>
-      </c>
       <c r="D116" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E116" t="n">
         <v>4</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>17</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4359,31 +4934,36 @@
           <t>ms331_48_2_109</t>
         </is>
       </c>
-      <c r="B117" s="9" t="inlineStr">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ms331_48_2_106</t>
+        </is>
+      </c>
+      <c r="C117" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>1862</v>
-      </c>
       <c r="D117" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E117" t="n">
         <v>4</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>17</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4395,31 +4975,36 @@
           <t>ms331_48_2_110</t>
         </is>
       </c>
-      <c r="B118" s="9" t="inlineStr">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ms331_48_2_110</t>
+        </is>
+      </c>
+      <c r="C118" s="9" t="inlineStr">
         <is>
           <t>Lettera di $MeuricoffreA a $HeldewierII</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>1862</v>
-      </c>
       <c r="D118" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E118" t="n">
         <v>5</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>31</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>$MeuricoffreA</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4431,12 +5016,17 @@
           <t>ms331_48_2_111</t>
         </is>
       </c>
-      <c r="B119" s="9" t="inlineStr">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ms331_48_2_111</t>
+        </is>
+      </c>
+      <c r="C119" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -4446,18 +5036,23 @@
           <t>ms331_48_2_112</t>
         </is>
       </c>
-      <c r="B120" s="5" t="inlineStr">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ms331_48_2_112</t>
+        </is>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
         <is>
           <t>Lettera</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>1862</v>
-      </c>
       <c r="D120" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E120" t="n">
         <v>6</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4467,18 +5062,23 @@
           <t>ms331_48_2_113</t>
         </is>
       </c>
-      <c r="B121" s="5" t="inlineStr">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ms331_48_2_112</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="inlineStr">
         <is>
           <t>Lettera</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>1862</v>
-      </c>
       <c r="D121" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E121" t="n">
         <v>6</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4488,31 +5088,36 @@
           <t>ms331_48_2_114</t>
         </is>
       </c>
-      <c r="B122" s="9" t="inlineStr">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ms331_48_2_114</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
         <is>
           <t>Lettera di $MeuricoffreA a $HeldewierII</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>1862</v>
-      </c>
       <c r="D122" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E122" t="n">
         <v>6</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>14</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>$MeuricoffreA</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4524,12 +5129,17 @@
           <t>ms331_48_2_115</t>
         </is>
       </c>
-      <c r="B123" s="9" t="inlineStr">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ms331_48_2_115</t>
+        </is>
+      </c>
+      <c r="C123" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -4539,12 +5149,17 @@
           <t>ms331_48_2_116</t>
         </is>
       </c>
-      <c r="B124" s="9" t="inlineStr">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ms331_48_2_116</t>
+        </is>
+      </c>
+      <c r="C124" s="9" t="inlineStr">
         <is>
           <t>Nota contabile</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -4554,31 +5169,36 @@
           <t>ms331_48_2_117</t>
         </is>
       </c>
-      <c r="B125" s="9" t="inlineStr">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ms331_48_2_117</t>
+        </is>
+      </c>
+      <c r="C125" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>1862</v>
-      </c>
       <c r="D125" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E125" t="n">
         <v>8</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>3</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4590,31 +5210,36 @@
           <t>ms331_48_2_118</t>
         </is>
       </c>
-      <c r="B126" s="9" t="inlineStr">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ms331_48_2_117</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Maesen</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>1862</v>
-      </c>
       <c r="D126" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E126" t="n">
         <v>8</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>3</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4626,31 +5251,36 @@
           <t>ms331_48_2_119</t>
         </is>
       </c>
-      <c r="B127" s="9" t="inlineStr">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ms331_48_2_119</t>
+        </is>
+      </c>
+      <c r="C127" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Donner a $HeldewierII</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>1862</v>
-      </c>
       <c r="D127" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E127" t="n">
         <v>9</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>24</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>$Donner</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4662,31 +5292,36 @@
           <t>ms331_48_2_120</t>
         </is>
       </c>
-      <c r="B128" s="9" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ms331_48_2_119</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Donner a $HeldewierII</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>1862</v>
-      </c>
       <c r="D128" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E128" t="n">
         <v>9</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>24</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>$Donner</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4698,31 +5333,36 @@
           <t>ms331_48_2_121</t>
         </is>
       </c>
-      <c r="B129" s="9" t="inlineStr">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ms331_48_2_121</t>
+        </is>
+      </c>
+      <c r="C129" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Maesen a $HeldewierII</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>1862</v>
-      </c>
       <c r="D129" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E129" t="n">
         <v>9</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>29</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4734,7 +5374,12 @@
           <t>ms331_48_2_122</t>
         </is>
       </c>
-      <c r="B130" s="9" t="inlineStr">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ms331_48_2_122</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4746,31 +5391,36 @@
           <t>ms331_48_2_123</t>
         </is>
       </c>
-      <c r="B131" s="9" t="inlineStr">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ms331_48_2_123</t>
+        </is>
+      </c>
+      <c r="C131" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII al $Ricasoli</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>1862</v>
-      </c>
       <c r="D131" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E131" t="n">
         <v>11</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>20</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>$Ricasoli</t>
         </is>
@@ -4782,31 +5432,36 @@
           <t>ms331_48_2_124</t>
         </is>
       </c>
-      <c r="B132" s="9" t="inlineStr">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ms331_48_2_123</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII al $Ricasoli</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>1862</v>
-      </c>
       <c r="D132" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>20</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>$Ricasoli</t>
         </is>
@@ -4818,31 +5473,36 @@
           <t>ms331_48_2_125</t>
         </is>
       </c>
-      <c r="B133" s="9" t="inlineStr">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ms331_48_2_125</t>
+        </is>
+      </c>
+      <c r="C133" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Maesen a $HeldewierII</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>1862</v>
-      </c>
       <c r="D133" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>1</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4854,12 +5514,17 @@
           <t>ms331_48_2_126</t>
         </is>
       </c>
-      <c r="B134" s="9" t="inlineStr">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ms331_48_2_126</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -4869,15 +5534,20 @@
           <t>ms331_48_2_127</t>
         </is>
       </c>
-      <c r="B135" s="9" t="inlineStr">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ms331_48_2_127</t>
+        </is>
+      </c>
+      <c r="C135" s="9" t="inlineStr">
         <is>
           <t>Lettera circolare di $Maesen</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>1862</v>
-      </c>
-      <c r="G135" t="inlineStr">
+      <c r="D135" t="n">
+        <v>1862</v>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4889,15 +5559,20 @@
           <t>ms331_48_2_128</t>
         </is>
       </c>
-      <c r="B136" s="9" t="inlineStr">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ms331_48_2_127</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
         <is>
           <t>Lettera circolare di $Maesen</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>1862</v>
-      </c>
-      <c r="G136" t="inlineStr">
+      <c r="D136" t="n">
+        <v>1862</v>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -4909,36 +5584,41 @@
           <t>ms331_48_2_129</t>
         </is>
       </c>
-      <c r="B137" s="9" t="inlineStr">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ms331_48_2_129</t>
+        </is>
+      </c>
+      <c r="C137" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Kempenaer al $Beekkerk</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>1862</v>
-      </c>
       <c r="D137" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E137" t="n">
         <v>12</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>3</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Leeuwarden</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>$Kempenaer</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>$Beekkerk</t>
         </is>
       </c>
-      <c r="J137" s="10" t="n"/>
+      <c r="K137" s="10" t="n"/>
     </row>
     <row r="138" ht="15.5" customHeight="1" s="8">
       <c r="A138" t="inlineStr">
@@ -4946,7 +5626,12 @@
           <t>ms331_48_2_130</t>
         </is>
       </c>
-      <c r="B138" s="9" t="inlineStr">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ms331_48_2_130</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -4958,31 +5643,36 @@
           <t>ms331_48_2_131</t>
         </is>
       </c>
-      <c r="B139" s="9" t="inlineStr">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ms331_48_2_131</t>
+        </is>
+      </c>
+      <c r="C139" s="9" t="inlineStr">
         <is>
           <t>Lettera del $Pasolini a $HeldewierII</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1862</v>
-      </c>
       <c r="D139" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E139" t="n">
         <v>12</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>13</v>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>$Pasolini</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -4994,7 +5684,12 @@
           <t>ms331_48_2_132</t>
         </is>
       </c>
-      <c r="B140" s="5" t="inlineStr">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ms331_48_2_132</t>
+        </is>
+      </c>
+      <c r="C140" s="5" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5006,31 +5701,36 @@
           <t>ms331_48_2_133</t>
         </is>
       </c>
-      <c r="B141" s="9" t="inlineStr">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ms331_48_2_133</t>
+        </is>
+      </c>
+      <c r="C141" s="9" t="inlineStr">
         <is>
           <t>Minuta di lettera di $HeldewierII a $Strens</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>1862</v>
-      </c>
       <c r="D141" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>14</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>$Strens</t>
         </is>
@@ -5042,31 +5742,36 @@
           <t>ms331_48_2_134</t>
         </is>
       </c>
-      <c r="B142" s="9" t="inlineStr">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ms331_48_2_134</t>
+        </is>
+      </c>
+      <c r="C142" s="9" t="inlineStr">
         <is>
           <t>Lettera del $Pasolini a $HeldewierII</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>1862</v>
-      </c>
       <c r="D142" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E142" t="n">
         <v>12</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>15</v>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G142" s="10" t="inlineStr">
+      <c r="H142" s="10" t="inlineStr">
         <is>
           <t>$Pasolini</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -5078,7 +5783,12 @@
           <t>ms331_48_2_135</t>
         </is>
       </c>
-      <c r="B143" s="9" t="inlineStr">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ms331_48_2_135</t>
+        </is>
+      </c>
+      <c r="C143" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5090,31 +5800,36 @@
           <t>ms331_48_2_136</t>
         </is>
       </c>
-      <c r="B144" s="9" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ms331_48_2_136</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Maesen a $HeldewierII</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>1862</v>
-      </c>
       <c r="D144" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E144" t="n">
         <v>12</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>27</v>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Torino</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -5126,7 +5841,12 @@
           <t>ms331_48_2_137</t>
         </is>
       </c>
-      <c r="B145" s="9" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ms331_48_2_137</t>
+        </is>
+      </c>
+      <c r="C145" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5138,26 +5858,31 @@
           <t>ms331_48_2_138</t>
         </is>
       </c>
-      <c r="B146" s="9" t="inlineStr">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ms331_48_2_138</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
         <is>
           <t>Lettera circolare litografata di $Maesen</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>1862</v>
-      </c>
       <c r="D146" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E146" t="n">
         <v>12</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>31</v>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -5169,7 +5894,12 @@
           <t>ms331_48_2_139</t>
         </is>
       </c>
-      <c r="B147" s="9" t="inlineStr">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ms331_48_2_139</t>
+        </is>
+      </c>
+      <c r="C147" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5181,31 +5911,36 @@
           <t>ms331_48_2_140</t>
         </is>
       </c>
-      <c r="B148" s="9" t="inlineStr">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ms331_48_2_140</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
         <is>
           <t>Lettera di $Maesen a $HeldewierII</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>1862</v>
-      </c>
       <c r="D148" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E148" t="n">
         <v>12</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>31</v>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>$HeldewierII</t>
         </is>
@@ -5217,7 +5952,12 @@
           <t>ms331_48_2_141</t>
         </is>
       </c>
-      <c r="B149" s="9" t="inlineStr">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ms331_48_2_141</t>
+        </is>
+      </c>
+      <c r="C149" s="9" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -5229,26 +5969,31 @@
           <t>ms331_48_2_142</t>
         </is>
       </c>
-      <c r="B150" s="9" t="inlineStr">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ms331_48_2_142</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
         <is>
           <t>Lettera circolare di $Maesen</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>1862</v>
-      </c>
       <c r="D150" t="n">
+        <v>1862</v>
+      </c>
+      <c r="E150" t="n">
         <v>12</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>31</v>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>L'Aia</t>
         </is>
       </c>
-      <c r="G150" s="10" t="inlineStr">
+      <c r="H150" s="10" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -5260,12 +6005,17 @@
           <t>ms331_48_2_143</t>
         </is>
       </c>
-      <c r="B151" s="9" t="inlineStr">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ms331_48_2_143</t>
+        </is>
+      </c>
+      <c r="C151" s="9" t="inlineStr">
         <is>
           <t>Memoria</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -5275,12 +6025,17 @@
           <t>ms331_48_2_144</t>
         </is>
       </c>
-      <c r="B152" s="9" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ms331_48_2_143</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
         <is>
           <t>Memoria</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>1862</v>
       </c>
     </row>
@@ -5290,15 +6045,20 @@
           <t>ms331_48_2_145</t>
         </is>
       </c>
-      <c r="B153" s="9" t="inlineStr">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ms331_48_2_145</t>
+        </is>
+      </c>
+      <c r="C153" s="9" t="inlineStr">
         <is>
           <t>Lettera circolare di $Maesen</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>1862</v>
-      </c>
-      <c r="G153" t="inlineStr">
+      <c r="D153" t="n">
+        <v>1862</v>
+      </c>
+      <c r="H153" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
@@ -5310,2508 +6070,2513 @@
           <t>ms331_48_2_146</t>
         </is>
       </c>
-      <c r="B154" s="9" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ms331_48_2_145</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr">
         <is>
           <t>Lettera circolare di $Maesen</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>1862</v>
-      </c>
-      <c r="G154" t="inlineStr">
+      <c r="D154" t="n">
+        <v>1862</v>
+      </c>
+      <c r="H154" t="inlineStr">
         <is>
           <t>$Maesen</t>
         </is>
       </c>
     </row>
     <row r="155" ht="15.5" customHeight="1" s="8">
-      <c r="B155" s="9" t="n"/>
+      <c r="C155" s="9" t="n"/>
     </row>
     <row r="156" ht="15.5" customHeight="1" s="8">
-      <c r="B156" s="9" t="n"/>
+      <c r="C156" s="9" t="n"/>
     </row>
     <row r="157" ht="15.5" customHeight="1" s="8">
-      <c r="B157" s="9" t="n"/>
+      <c r="C157" s="9" t="n"/>
     </row>
     <row r="158" ht="15.5" customHeight="1" s="8">
-      <c r="B158" s="9" t="n"/>
+      <c r="C158" s="9" t="n"/>
     </row>
     <row r="159" ht="15.5" customHeight="1" s="8">
-      <c r="B159" s="9" t="n"/>
+      <c r="C159" s="9" t="n"/>
     </row>
     <row r="160" ht="15.5" customHeight="1" s="8">
-      <c r="B160" s="9" t="n"/>
+      <c r="C160" s="9" t="n"/>
     </row>
     <row r="161" ht="15.5" customHeight="1" s="8">
-      <c r="B161" s="9" t="n"/>
+      <c r="C161" s="9" t="n"/>
     </row>
     <row r="162" ht="15.5" customHeight="1" s="8">
-      <c r="B162" s="9" t="n"/>
+      <c r="C162" s="9" t="n"/>
     </row>
     <row r="163" ht="15.5" customHeight="1" s="8">
-      <c r="B163" s="9" t="n"/>
+      <c r="C163" s="9" t="n"/>
     </row>
     <row r="164" ht="15.5" customHeight="1" s="8">
-      <c r="B164" s="9" t="n"/>
+      <c r="C164" s="9" t="n"/>
     </row>
     <row r="165" ht="15.5" customHeight="1" s="8">
-      <c r="B165" s="9" t="n"/>
+      <c r="C165" s="9" t="n"/>
     </row>
     <row r="166" ht="15.5" customHeight="1" s="8">
-      <c r="B166" s="9" t="n"/>
+      <c r="C166" s="9" t="n"/>
     </row>
     <row r="167" ht="15.5" customHeight="1" s="8">
-      <c r="B167" s="9" t="n"/>
+      <c r="C167" s="9" t="n"/>
     </row>
     <row r="168" ht="15.5" customHeight="1" s="8">
-      <c r="B168" s="9" t="n"/>
+      <c r="C168" s="9" t="n"/>
     </row>
     <row r="169" ht="15.5" customHeight="1" s="8">
-      <c r="B169" s="9" t="n"/>
+      <c r="C169" s="9" t="n"/>
     </row>
     <row r="170" ht="15.5" customHeight="1" s="8">
-      <c r="B170" s="9" t="n"/>
+      <c r="C170" s="9" t="n"/>
     </row>
     <row r="171" ht="15.5" customHeight="1" s="8">
-      <c r="B171" s="9" t="n"/>
+      <c r="C171" s="9" t="n"/>
     </row>
     <row r="172" ht="15.5" customHeight="1" s="8">
-      <c r="B172" s="9" t="n"/>
+      <c r="C172" s="9" t="n"/>
     </row>
     <row r="173" ht="15.5" customHeight="1" s="8">
-      <c r="B173" s="9" t="n"/>
+      <c r="C173" s="9" t="n"/>
     </row>
     <row r="174" ht="15.5" customHeight="1" s="8">
-      <c r="B174" s="9" t="n"/>
+      <c r="C174" s="9" t="n"/>
     </row>
     <row r="175" ht="15.5" customHeight="1" s="8">
-      <c r="B175" s="9" t="n"/>
+      <c r="C175" s="9" t="n"/>
     </row>
     <row r="176" ht="15.5" customHeight="1" s="8">
-      <c r="B176" s="9" t="n"/>
+      <c r="C176" s="9" t="n"/>
     </row>
     <row r="177" ht="15.5" customHeight="1" s="8">
-      <c r="B177" s="9" t="n"/>
+      <c r="C177" s="9" t="n"/>
     </row>
     <row r="178" ht="15.5" customHeight="1" s="8">
-      <c r="B178" s="9" t="n"/>
+      <c r="C178" s="9" t="n"/>
     </row>
     <row r="179" ht="15.5" customHeight="1" s="8">
-      <c r="B179" s="9" t="n"/>
+      <c r="C179" s="9" t="n"/>
     </row>
     <row r="180" ht="15.5" customHeight="1" s="8">
-      <c r="B180" s="3" t="n"/>
+      <c r="C180" s="3" t="n"/>
     </row>
     <row r="181" ht="15.5" customHeight="1" s="8">
-      <c r="B181" s="9" t="n"/>
+      <c r="C181" s="9" t="n"/>
     </row>
     <row r="182" ht="15.5" customHeight="1" s="8">
-      <c r="B182" s="9" t="n"/>
+      <c r="C182" s="9" t="n"/>
     </row>
     <row r="183" ht="15.5" customHeight="1" s="8">
-      <c r="B183" s="9" t="n"/>
+      <c r="C183" s="9" t="n"/>
     </row>
     <row r="184" ht="15.5" customHeight="1" s="8">
-      <c r="B184" s="9" t="n"/>
+      <c r="C184" s="9" t="n"/>
     </row>
     <row r="185" ht="15.5" customHeight="1" s="8">
-      <c r="B185" s="9" t="n"/>
+      <c r="C185" s="9" t="n"/>
     </row>
     <row r="186" ht="15.5" customHeight="1" s="8">
-      <c r="B186" s="9" t="n"/>
+      <c r="C186" s="9" t="n"/>
     </row>
     <row r="187" ht="15.5" customHeight="1" s="8">
-      <c r="B187" s="9" t="n"/>
+      <c r="C187" s="9" t="n"/>
     </row>
     <row r="188" ht="15.5" customHeight="1" s="8">
-      <c r="B188" s="9" t="n"/>
+      <c r="C188" s="9" t="n"/>
     </row>
     <row r="189" ht="15.5" customHeight="1" s="8">
-      <c r="B189" s="9" t="n"/>
+      <c r="C189" s="9" t="n"/>
     </row>
     <row r="190" ht="15.5" customHeight="1" s="8">
-      <c r="B190" s="3" t="n"/>
+      <c r="C190" s="3" t="n"/>
     </row>
     <row r="191" ht="15.5" customHeight="1" s="8">
-      <c r="B191" s="9" t="n"/>
+      <c r="C191" s="9" t="n"/>
     </row>
     <row r="192" ht="15.5" customHeight="1" s="8">
-      <c r="B192" s="9" t="n"/>
+      <c r="C192" s="9" t="n"/>
     </row>
     <row r="193" ht="15.5" customHeight="1" s="8">
-      <c r="B193" s="9" t="n"/>
+      <c r="C193" s="9" t="n"/>
     </row>
     <row r="194" ht="15.5" customHeight="1" s="8">
-      <c r="B194" s="9" t="n"/>
+      <c r="C194" s="9" t="n"/>
     </row>
     <row r="195" ht="15.5" customHeight="1" s="8">
-      <c r="B195" s="9" t="n"/>
+      <c r="C195" s="9" t="n"/>
     </row>
     <row r="196" ht="15.5" customHeight="1" s="8">
-      <c r="B196" s="3" t="n"/>
+      <c r="C196" s="3" t="n"/>
     </row>
     <row r="197" ht="15.5" customHeight="1" s="8">
-      <c r="B197" s="9" t="n"/>
+      <c r="C197" s="9" t="n"/>
     </row>
     <row r="198" ht="15.5" customHeight="1" s="8">
-      <c r="B198" s="9" t="n"/>
+      <c r="C198" s="9" t="n"/>
     </row>
     <row r="199" ht="15.5" customHeight="1" s="8">
-      <c r="B199" s="9" t="n"/>
+      <c r="C199" s="9" t="n"/>
     </row>
     <row r="200" ht="15.5" customHeight="1" s="8">
-      <c r="B200" s="9" t="n"/>
+      <c r="C200" s="9" t="n"/>
     </row>
     <row r="201" ht="15.5" customHeight="1" s="8">
-      <c r="B201" s="9" t="n"/>
+      <c r="C201" s="9" t="n"/>
     </row>
     <row r="202" ht="15.5" customHeight="1" s="8">
-      <c r="B202" s="9" t="n"/>
+      <c r="C202" s="9" t="n"/>
     </row>
     <row r="203" ht="15.5" customHeight="1" s="8">
-      <c r="B203" s="9" t="n"/>
+      <c r="C203" s="9" t="n"/>
     </row>
     <row r="204" ht="15.5" customHeight="1" s="8">
-      <c r="B204" s="3" t="n"/>
+      <c r="C204" s="3" t="n"/>
     </row>
     <row r="205" ht="15.5" customHeight="1" s="8">
-      <c r="B205" s="9" t="n"/>
+      <c r="C205" s="9" t="n"/>
     </row>
     <row r="206" ht="15" customHeight="1" s="8">
-      <c r="B206" s="9" t="n"/>
+      <c r="C206" s="9" t="n"/>
     </row>
     <row r="207" ht="15.5" customHeight="1" s="8">
-      <c r="B207" s="9" t="n"/>
+      <c r="C207" s="9" t="n"/>
     </row>
     <row r="208" ht="15.5" customHeight="1" s="8">
-      <c r="B208" s="9" t="n"/>
+      <c r="C208" s="9" t="n"/>
     </row>
     <row r="209" ht="15.5" customHeight="1" s="8">
-      <c r="B209" s="9" t="n"/>
+      <c r="C209" s="9" t="n"/>
     </row>
     <row r="210" ht="15" customHeight="1" s="8">
-      <c r="B210" s="9" t="n"/>
+      <c r="C210" s="9" t="n"/>
     </row>
     <row r="211" ht="15.5" customHeight="1" s="8">
-      <c r="B211" s="9" t="n"/>
+      <c r="C211" s="9" t="n"/>
     </row>
     <row r="212" ht="15.5" customHeight="1" s="8">
-      <c r="B212" s="9" t="n"/>
+      <c r="C212" s="9" t="n"/>
     </row>
     <row r="213" ht="15.5" customHeight="1" s="8">
-      <c r="B213" s="9" t="n"/>
+      <c r="C213" s="9" t="n"/>
     </row>
     <row r="214" ht="15" customHeight="1" s="8">
-      <c r="B214" s="9" t="n"/>
+      <c r="C214" s="9" t="n"/>
     </row>
     <row r="215" ht="15.5" customHeight="1" s="8">
-      <c r="B215" s="9" t="n"/>
+      <c r="C215" s="9" t="n"/>
     </row>
     <row r="216" ht="15.5" customHeight="1" s="8">
-      <c r="B216" s="9" t="n"/>
+      <c r="C216" s="9" t="n"/>
     </row>
     <row r="217" ht="15.5" customHeight="1" s="8">
-      <c r="B217" s="9" t="n"/>
+      <c r="C217" s="9" t="n"/>
     </row>
     <row r="218" ht="15.5" customHeight="1" s="8">
-      <c r="B218" s="9" t="n"/>
+      <c r="C218" s="9" t="n"/>
     </row>
     <row r="219" ht="15.5" customHeight="1" s="8">
-      <c r="B219" s="9" t="n"/>
+      <c r="C219" s="9" t="n"/>
     </row>
     <row r="220" ht="15.5" customHeight="1" s="8">
-      <c r="B220" s="9" t="n"/>
+      <c r="C220" s="9" t="n"/>
     </row>
     <row r="221" ht="15.5" customHeight="1" s="8">
-      <c r="B221" s="9" t="n"/>
+      <c r="C221" s="9" t="n"/>
     </row>
     <row r="222" ht="15.5" customHeight="1" s="8">
-      <c r="B222" s="9" t="n"/>
+      <c r="C222" s="9" t="n"/>
     </row>
     <row r="223" ht="15.5" customHeight="1" s="8">
-      <c r="B223" s="9" t="n"/>
+      <c r="C223" s="9" t="n"/>
     </row>
     <row r="224" ht="15.5" customHeight="1" s="8">
-      <c r="B224" s="9" t="n"/>
+      <c r="C224" s="9" t="n"/>
     </row>
     <row r="225" ht="15.5" customHeight="1" s="8">
-      <c r="B225" s="9" t="n"/>
+      <c r="C225" s="9" t="n"/>
     </row>
     <row r="226" ht="15.5" customHeight="1" s="8">
-      <c r="B226" s="9" t="n"/>
+      <c r="C226" s="9" t="n"/>
     </row>
     <row r="227" ht="15.5" customHeight="1" s="8">
-      <c r="B227" s="9" t="n"/>
+      <c r="C227" s="9" t="n"/>
     </row>
     <row r="228" ht="15.5" customHeight="1" s="8">
-      <c r="B228" s="9" t="n"/>
+      <c r="C228" s="9" t="n"/>
     </row>
     <row r="229" ht="15.5" customHeight="1" s="8">
-      <c r="B229" s="9" t="n"/>
+      <c r="C229" s="9" t="n"/>
     </row>
     <row r="230" ht="15.5" customHeight="1" s="8">
-      <c r="B230" s="9" t="n"/>
+      <c r="C230" s="9" t="n"/>
     </row>
     <row r="231" ht="15.5" customHeight="1" s="8">
-      <c r="B231" s="9" t="n"/>
+      <c r="C231" s="9" t="n"/>
     </row>
     <row r="232" ht="15.5" customHeight="1" s="8">
-      <c r="B232" s="9" t="n"/>
+      <c r="C232" s="9" t="n"/>
     </row>
     <row r="233" ht="15.5" customHeight="1" s="8">
-      <c r="B233" s="9" t="n"/>
+      <c r="C233" s="9" t="n"/>
     </row>
     <row r="234" ht="15.5" customHeight="1" s="8">
-      <c r="B234" s="9" t="n"/>
+      <c r="C234" s="9" t="n"/>
     </row>
     <row r="235" ht="15.5" customHeight="1" s="8">
-      <c r="B235" s="9" t="n"/>
+      <c r="C235" s="9" t="n"/>
     </row>
     <row r="236" ht="15.5" customHeight="1" s="8">
-      <c r="B236" s="9" t="n"/>
+      <c r="C236" s="9" t="n"/>
     </row>
     <row r="237" ht="15.5" customHeight="1" s="8">
-      <c r="B237" s="3" t="n"/>
+      <c r="C237" s="3" t="n"/>
     </row>
     <row r="238" ht="15.5" customHeight="1" s="8">
-      <c r="B238" s="9" t="n"/>
+      <c r="C238" s="9" t="n"/>
     </row>
     <row r="239" ht="15.5" customHeight="1" s="8">
-      <c r="B239" s="9" t="n"/>
+      <c r="C239" s="9" t="n"/>
     </row>
     <row r="240" ht="15.5" customHeight="1" s="8">
-      <c r="B240" s="9" t="n"/>
+      <c r="C240" s="9" t="n"/>
     </row>
     <row r="241" ht="15.5" customHeight="1" s="8">
-      <c r="B241" s="9" t="n"/>
+      <c r="C241" s="9" t="n"/>
     </row>
     <row r="242" ht="15.5" customHeight="1" s="8">
-      <c r="B242" s="9" t="n"/>
+      <c r="C242" s="9" t="n"/>
     </row>
     <row r="243" ht="15.5" customHeight="1" s="8">
-      <c r="B243" s="9" t="n"/>
+      <c r="C243" s="9" t="n"/>
     </row>
     <row r="244" ht="15.5" customHeight="1" s="8">
-      <c r="B244" s="9" t="n"/>
+      <c r="C244" s="9" t="n"/>
     </row>
     <row r="245" ht="15.5" customHeight="1" s="8">
-      <c r="B245" s="9" t="n"/>
+      <c r="C245" s="9" t="n"/>
     </row>
     <row r="246" ht="15.5" customHeight="1" s="8">
-      <c r="B246" s="9" t="n"/>
+      <c r="C246" s="9" t="n"/>
     </row>
     <row r="247" ht="15.5" customHeight="1" s="8">
-      <c r="B247" s="9" t="n"/>
+      <c r="C247" s="9" t="n"/>
     </row>
     <row r="248" ht="15.5" customHeight="1" s="8">
-      <c r="B248" s="9" t="n"/>
+      <c r="C248" s="9" t="n"/>
     </row>
     <row r="249" ht="15.5" customHeight="1" s="8">
-      <c r="B249" s="9" t="n"/>
+      <c r="C249" s="9" t="n"/>
     </row>
     <row r="250" ht="15.5" customHeight="1" s="8">
-      <c r="B250" s="9" t="n"/>
+      <c r="C250" s="9" t="n"/>
     </row>
     <row r="251" ht="15.5" customHeight="1" s="8">
-      <c r="B251" s="9" t="n"/>
+      <c r="C251" s="9" t="n"/>
     </row>
     <row r="252" ht="15.5" customHeight="1" s="8">
-      <c r="B252" s="9" t="n"/>
+      <c r="C252" s="9" t="n"/>
     </row>
     <row r="253" ht="15.5" customHeight="1" s="8">
-      <c r="B253" s="9" t="n"/>
+      <c r="C253" s="9" t="n"/>
     </row>
     <row r="254" ht="15.5" customHeight="1" s="8">
-      <c r="B254" s="9" t="n"/>
+      <c r="C254" s="9" t="n"/>
     </row>
     <row r="255" ht="15.5" customHeight="1" s="8">
-      <c r="B255" s="9" t="n"/>
+      <c r="C255" s="9" t="n"/>
     </row>
     <row r="256" ht="15.5" customHeight="1" s="8">
-      <c r="B256" s="9" t="n"/>
+      <c r="C256" s="9" t="n"/>
     </row>
     <row r="257" ht="15.5" customHeight="1" s="8">
-      <c r="B257" s="9" t="n"/>
+      <c r="C257" s="9" t="n"/>
     </row>
     <row r="258" ht="15.5" customHeight="1" s="8">
-      <c r="B258" s="5" t="n"/>
+      <c r="C258" s="5" t="n"/>
     </row>
     <row r="259" ht="15.5" customHeight="1" s="8">
-      <c r="B259" s="5" t="n"/>
+      <c r="C259" s="5" t="n"/>
     </row>
     <row r="260" ht="15.5" customHeight="1" s="8">
-      <c r="B260" s="9" t="n"/>
+      <c r="C260" s="9" t="n"/>
     </row>
     <row r="261" ht="15.5" customHeight="1" s="8">
-      <c r="B261" s="9" t="n"/>
+      <c r="C261" s="9" t="n"/>
     </row>
     <row r="262" ht="15.5" customHeight="1" s="8">
-      <c r="B262" s="9" t="n"/>
+      <c r="C262" s="9" t="n"/>
     </row>
     <row r="263" ht="15.5" customHeight="1" s="8">
-      <c r="B263" s="9" t="n"/>
+      <c r="C263" s="9" t="n"/>
     </row>
     <row r="264" ht="15.5" customHeight="1" s="8">
-      <c r="B264" s="9" t="n"/>
+      <c r="C264" s="9" t="n"/>
     </row>
     <row r="265" ht="15.5" customHeight="1" s="8">
-      <c r="B265" s="9" t="n"/>
+      <c r="C265" s="9" t="n"/>
     </row>
     <row r="266" ht="15.5" customHeight="1" s="8">
-      <c r="B266" s="9" t="n"/>
+      <c r="C266" s="9" t="n"/>
     </row>
     <row r="267" ht="15.5" customHeight="1" s="8">
-      <c r="B267" s="9" t="n"/>
+      <c r="C267" s="9" t="n"/>
     </row>
     <row r="268" ht="15.5" customHeight="1" s="8">
-      <c r="B268" s="9" t="n"/>
+      <c r="C268" s="9" t="n"/>
     </row>
     <row r="269" ht="15.5" customHeight="1" s="8">
-      <c r="B269" s="9" t="n"/>
+      <c r="C269" s="9" t="n"/>
     </row>
     <row r="270" ht="15.5" customHeight="1" s="8">
-      <c r="B270" s="9" t="n"/>
+      <c r="C270" s="9" t="n"/>
     </row>
     <row r="271" ht="15.5" customHeight="1" s="8">
-      <c r="B271" s="9" t="n"/>
+      <c r="C271" s="9" t="n"/>
     </row>
     <row r="272" ht="15.5" customHeight="1" s="8">
-      <c r="B272" s="9" t="n"/>
+      <c r="C272" s="9" t="n"/>
     </row>
     <row r="273" ht="15.5" customHeight="1" s="8">
-      <c r="B273" s="9" t="n"/>
+      <c r="C273" s="9" t="n"/>
     </row>
     <row r="274" ht="15.5" customHeight="1" s="8">
-      <c r="B274" s="9" t="n"/>
+      <c r="C274" s="9" t="n"/>
     </row>
     <row r="275" ht="15.5" customHeight="1" s="8">
-      <c r="B275" s="9" t="n"/>
+      <c r="C275" s="9" t="n"/>
     </row>
     <row r="276" ht="15.5" customHeight="1" s="8">
-      <c r="B276" s="9" t="n"/>
+      <c r="C276" s="9" t="n"/>
     </row>
     <row r="277" ht="15.5" customHeight="1" s="8">
-      <c r="B277" s="9" t="n"/>
+      <c r="C277" s="9" t="n"/>
     </row>
     <row r="278" ht="15.5" customHeight="1" s="8">
-      <c r="B278" s="9" t="n"/>
+      <c r="C278" s="9" t="n"/>
     </row>
     <row r="279" ht="15.5" customHeight="1" s="8">
-      <c r="B279" s="9" t="n"/>
+      <c r="C279" s="9" t="n"/>
     </row>
     <row r="280" ht="15.5" customHeight="1" s="8">
-      <c r="B280" s="9" t="n"/>
+      <c r="C280" s="9" t="n"/>
     </row>
     <row r="281" ht="15.5" customHeight="1" s="8">
-      <c r="B281" s="9" t="n"/>
+      <c r="C281" s="9" t="n"/>
     </row>
     <row r="282" ht="15.5" customHeight="1" s="8">
-      <c r="B282" s="9" t="n"/>
+      <c r="C282" s="9" t="n"/>
     </row>
     <row r="283" ht="15.5" customHeight="1" s="8">
-      <c r="B283" s="9" t="n"/>
+      <c r="C283" s="9" t="n"/>
     </row>
     <row r="284" ht="15.5" customHeight="1" s="8">
-      <c r="B284" s="9" t="n"/>
+      <c r="C284" s="9" t="n"/>
     </row>
     <row r="285" ht="15.5" customHeight="1" s="8">
-      <c r="B285" s="9" t="n"/>
+      <c r="C285" s="9" t="n"/>
     </row>
     <row r="286" ht="15.5" customHeight="1" s="8">
-      <c r="B286" s="9" t="n"/>
+      <c r="C286" s="9" t="n"/>
     </row>
     <row r="287" ht="15.5" customHeight="1" s="8">
-      <c r="B287" s="9" t="n"/>
+      <c r="C287" s="9" t="n"/>
     </row>
     <row r="288" ht="15.5" customHeight="1" s="8">
-      <c r="B288" s="9" t="n"/>
+      <c r="C288" s="9" t="n"/>
     </row>
     <row r="289" ht="15.5" customHeight="1" s="8">
-      <c r="B289" s="9" t="n"/>
+      <c r="C289" s="9" t="n"/>
     </row>
     <row r="290" ht="15.5" customHeight="1" s="8">
-      <c r="B290" s="9" t="n"/>
+      <c r="C290" s="9" t="n"/>
     </row>
     <row r="291" ht="15.5" customHeight="1" s="8">
-      <c r="B291" s="5" t="n"/>
+      <c r="C291" s="5" t="n"/>
     </row>
     <row r="292" ht="15.5" customHeight="1" s="8">
-      <c r="B292" s="2" t="n"/>
+      <c r="C292" s="2" t="n"/>
     </row>
     <row r="293" ht="15.5" customHeight="1" s="8">
-      <c r="B293" s="9" t="n"/>
+      <c r="C293" s="9" t="n"/>
     </row>
     <row r="294" ht="15.5" customHeight="1" s="8">
-      <c r="B294" s="9" t="n"/>
+      <c r="C294" s="9" t="n"/>
     </row>
     <row r="295" ht="15.5" customHeight="1" s="8">
-      <c r="B295" s="9" t="n"/>
+      <c r="C295" s="9" t="n"/>
     </row>
     <row r="296" ht="15.5" customHeight="1" s="8">
-      <c r="B296" s="9" t="n"/>
+      <c r="C296" s="9" t="n"/>
     </row>
     <row r="297" ht="15.5" customHeight="1" s="8">
-      <c r="B297" s="9" t="n"/>
+      <c r="C297" s="9" t="n"/>
     </row>
     <row r="298" ht="15.5" customHeight="1" s="8">
-      <c r="B298" s="9" t="n"/>
+      <c r="C298" s="9" t="n"/>
     </row>
     <row r="299" ht="15.5" customHeight="1" s="8">
-      <c r="B299" s="9" t="n"/>
+      <c r="C299" s="9" t="n"/>
     </row>
     <row r="300" ht="15.5" customHeight="1" s="8">
-      <c r="B300" s="9" t="n"/>
+      <c r="C300" s="9" t="n"/>
     </row>
     <row r="301" ht="15.5" customHeight="1" s="8">
-      <c r="B301" s="9" t="n"/>
+      <c r="C301" s="9" t="n"/>
     </row>
     <row r="302" ht="15.5" customHeight="1" s="8">
-      <c r="B302" s="9" t="n"/>
+      <c r="C302" s="9" t="n"/>
     </row>
     <row r="303" ht="15.5" customHeight="1" s="8">
-      <c r="B303" s="9" t="n"/>
+      <c r="C303" s="9" t="n"/>
     </row>
     <row r="304" ht="15.5" customHeight="1" s="8">
-      <c r="B304" s="9" t="n"/>
+      <c r="C304" s="9" t="n"/>
     </row>
     <row r="305" ht="15.5" customHeight="1" s="8">
-      <c r="B305" s="9" t="n"/>
+      <c r="C305" s="9" t="n"/>
     </row>
     <row r="306" ht="15.5" customHeight="1" s="8">
-      <c r="B306" s="9" t="n"/>
+      <c r="C306" s="9" t="n"/>
     </row>
     <row r="307" ht="15.5" customHeight="1" s="8">
-      <c r="B307" s="9" t="n"/>
+      <c r="C307" s="9" t="n"/>
     </row>
     <row r="308" ht="15.5" customHeight="1" s="8">
-      <c r="B308" s="9" t="n"/>
+      <c r="C308" s="9" t="n"/>
     </row>
     <row r="309" ht="15.5" customHeight="1" s="8">
-      <c r="B309" s="9" t="n"/>
+      <c r="C309" s="9" t="n"/>
     </row>
     <row r="310" ht="15.5" customHeight="1" s="8">
-      <c r="B310" s="9" t="n"/>
+      <c r="C310" s="9" t="n"/>
     </row>
     <row r="311" ht="15.5" customHeight="1" s="8">
-      <c r="B311" s="9" t="n"/>
+      <c r="C311" s="9" t="n"/>
     </row>
     <row r="312" ht="15.5" customHeight="1" s="8">
-      <c r="B312" s="9" t="n"/>
+      <c r="C312" s="9" t="n"/>
     </row>
     <row r="313" ht="15.5" customHeight="1" s="8">
-      <c r="B313" s="9" t="n"/>
+      <c r="C313" s="9" t="n"/>
     </row>
     <row r="314" ht="15.5" customHeight="1" s="8">
-      <c r="B314" s="9" t="n"/>
+      <c r="C314" s="9" t="n"/>
     </row>
     <row r="315" ht="15.5" customHeight="1" s="8">
-      <c r="B315" s="3" t="n"/>
+      <c r="C315" s="3" t="n"/>
     </row>
     <row r="316" ht="15.5" customHeight="1" s="8">
-      <c r="B316" s="9" t="n"/>
+      <c r="C316" s="9" t="n"/>
     </row>
     <row r="317" ht="15.5" customHeight="1" s="8">
-      <c r="B317" s="9" t="n"/>
+      <c r="C317" s="9" t="n"/>
     </row>
     <row r="318" ht="15.5" customHeight="1" s="8">
-      <c r="B318" s="9" t="n"/>
+      <c r="C318" s="9" t="n"/>
     </row>
     <row r="319" ht="15.5" customHeight="1" s="8">
-      <c r="B319" s="9" t="n"/>
+      <c r="C319" s="9" t="n"/>
     </row>
     <row r="320" ht="15.5" customHeight="1" s="8">
-      <c r="B320" s="9" t="n"/>
+      <c r="C320" s="9" t="n"/>
     </row>
     <row r="321" ht="15.5" customHeight="1" s="8">
-      <c r="B321" s="3" t="n"/>
+      <c r="C321" s="3" t="n"/>
     </row>
     <row r="322" ht="15.5" customHeight="1" s="8">
-      <c r="B322" s="9" t="n"/>
+      <c r="C322" s="9" t="n"/>
     </row>
     <row r="323" ht="15.5" customHeight="1" s="8">
-      <c r="B323" s="9" t="n"/>
+      <c r="C323" s="9" t="n"/>
     </row>
     <row r="324" ht="15.5" customHeight="1" s="8">
-      <c r="B324" s="9" t="n"/>
+      <c r="C324" s="9" t="n"/>
     </row>
     <row r="325" ht="15.5" customHeight="1" s="8">
-      <c r="B325" s="9" t="n"/>
+      <c r="C325" s="9" t="n"/>
     </row>
     <row r="326" ht="15.5" customHeight="1" s="8">
-      <c r="B326" s="9" t="n"/>
+      <c r="C326" s="9" t="n"/>
     </row>
     <row r="327" ht="15.5" customHeight="1" s="8">
-      <c r="B327" s="9" t="n"/>
+      <c r="C327" s="9" t="n"/>
     </row>
     <row r="328" ht="15.5" customHeight="1" s="8">
-      <c r="B328" s="9" t="n"/>
+      <c r="C328" s="9" t="n"/>
     </row>
     <row r="329" ht="15.5" customHeight="1" s="8">
-      <c r="B329" s="9" t="n"/>
+      <c r="C329" s="9" t="n"/>
     </row>
     <row r="330" ht="15.5" customHeight="1" s="8">
-      <c r="B330" s="9" t="n"/>
+      <c r="C330" s="9" t="n"/>
     </row>
     <row r="331" ht="15.5" customHeight="1" s="8">
-      <c r="B331" s="9" t="n"/>
+      <c r="C331" s="9" t="n"/>
     </row>
     <row r="332" ht="15.5" customHeight="1" s="8">
-      <c r="B332" s="9" t="n"/>
+      <c r="C332" s="9" t="n"/>
     </row>
     <row r="333" ht="15.5" customHeight="1" s="8">
-      <c r="B333" s="9" t="n"/>
+      <c r="C333" s="9" t="n"/>
     </row>
     <row r="334" ht="15.5" customHeight="1" s="8">
-      <c r="B334" s="9" t="n"/>
+      <c r="C334" s="9" t="n"/>
     </row>
     <row r="335" ht="15.5" customHeight="1" s="8">
-      <c r="B335" s="9" t="n"/>
+      <c r="C335" s="9" t="n"/>
     </row>
     <row r="336" ht="15.5" customHeight="1" s="8">
-      <c r="B336" s="3" t="n"/>
+      <c r="C336" s="3" t="n"/>
     </row>
     <row r="337" ht="15.5" customHeight="1" s="8">
-      <c r="B337" s="3" t="n"/>
+      <c r="C337" s="3" t="n"/>
     </row>
     <row r="338" ht="15.5" customHeight="1" s="8">
-      <c r="B338" s="3" t="n"/>
+      <c r="C338" s="3" t="n"/>
     </row>
     <row r="339" ht="15.5" customHeight="1" s="8">
-      <c r="B339" s="9" t="n"/>
+      <c r="C339" s="9" t="n"/>
     </row>
     <row r="340" ht="15.5" customHeight="1" s="8">
-      <c r="B340" s="9" t="n"/>
+      <c r="C340" s="9" t="n"/>
     </row>
     <row r="341" ht="15.5" customHeight="1" s="8">
-      <c r="B341" s="3" t="n"/>
+      <c r="C341" s="3" t="n"/>
     </row>
     <row r="342" ht="15.5" customHeight="1" s="8">
-      <c r="B342" s="9" t="n"/>
+      <c r="C342" s="9" t="n"/>
     </row>
     <row r="343" ht="15.5" customHeight="1" s="8">
-      <c r="B343" s="3" t="n"/>
+      <c r="C343" s="3" t="n"/>
     </row>
     <row r="344" ht="15.5" customHeight="1" s="8">
-      <c r="B344" s="3" t="n"/>
+      <c r="C344" s="3" t="n"/>
     </row>
     <row r="345" ht="15.5" customHeight="1" s="8">
-      <c r="B345" s="3" t="n"/>
+      <c r="C345" s="3" t="n"/>
     </row>
     <row r="346" ht="15.5" customHeight="1" s="8">
-      <c r="B346" s="3" t="n"/>
+      <c r="C346" s="3" t="n"/>
     </row>
     <row r="347" ht="15.5" customHeight="1" s="8">
-      <c r="B347" s="9" t="n"/>
+      <c r="C347" s="9" t="n"/>
     </row>
     <row r="348" ht="15.5" customHeight="1" s="8">
-      <c r="B348" s="9" t="n"/>
+      <c r="C348" s="9" t="n"/>
     </row>
     <row r="349" ht="15.5" customHeight="1" s="8">
-      <c r="B349" s="9" t="n"/>
+      <c r="C349" s="9" t="n"/>
     </row>
     <row r="350" ht="15.5" customHeight="1" s="8">
-      <c r="B350" s="9" t="n"/>
+      <c r="C350" s="9" t="n"/>
     </row>
     <row r="351" ht="15.5" customHeight="1" s="8">
-      <c r="B351" s="9" t="n"/>
+      <c r="C351" s="9" t="n"/>
     </row>
     <row r="352" ht="15.5" customHeight="1" s="8">
-      <c r="B352" s="9" t="n"/>
+      <c r="C352" s="9" t="n"/>
     </row>
     <row r="353" ht="15.5" customHeight="1" s="8">
-      <c r="B353" s="9" t="n"/>
+      <c r="C353" s="9" t="n"/>
     </row>
     <row r="354" ht="15.5" customHeight="1" s="8">
-      <c r="B354" s="9" t="n"/>
+      <c r="C354" s="9" t="n"/>
     </row>
     <row r="355" ht="15.5" customHeight="1" s="8">
-      <c r="B355" s="9" t="n"/>
+      <c r="C355" s="9" t="n"/>
     </row>
     <row r="356" ht="15.5" customHeight="1" s="8">
-      <c r="B356" s="9" t="n"/>
+      <c r="C356" s="9" t="n"/>
     </row>
     <row r="357" ht="15.5" customHeight="1" s="8">
-      <c r="B357" s="9" t="n"/>
+      <c r="C357" s="9" t="n"/>
     </row>
     <row r="358" ht="15.5" customHeight="1" s="8">
-      <c r="B358" s="9" t="n"/>
+      <c r="C358" s="9" t="n"/>
     </row>
     <row r="359" ht="15.5" customHeight="1" s="8">
-      <c r="B359" s="9" t="n"/>
+      <c r="C359" s="9" t="n"/>
     </row>
     <row r="360" ht="15.5" customHeight="1" s="8">
-      <c r="B360" s="9" t="n"/>
+      <c r="C360" s="9" t="n"/>
     </row>
     <row r="361" ht="15.5" customHeight="1" s="8">
-      <c r="B361" s="9" t="n"/>
+      <c r="C361" s="9" t="n"/>
     </row>
     <row r="362" ht="15.5" customHeight="1" s="8">
-      <c r="B362" s="9" t="n"/>
+      <c r="C362" s="9" t="n"/>
     </row>
     <row r="363" ht="15.5" customHeight="1" s="8">
-      <c r="B363" s="9" t="n"/>
+      <c r="C363" s="9" t="n"/>
     </row>
     <row r="364" ht="15.5" customHeight="1" s="8">
-      <c r="B364" s="9" t="n"/>
+      <c r="C364" s="9" t="n"/>
     </row>
     <row r="365" ht="15.5" customHeight="1" s="8">
-      <c r="B365" s="9" t="n"/>
+      <c r="C365" s="9" t="n"/>
     </row>
     <row r="366" ht="15.5" customHeight="1" s="8">
-      <c r="B366" s="9" t="n"/>
+      <c r="C366" s="9" t="n"/>
     </row>
     <row r="367" ht="15.5" customHeight="1" s="8">
-      <c r="B367" s="9" t="n"/>
+      <c r="C367" s="9" t="n"/>
     </row>
     <row r="368" ht="15.5" customHeight="1" s="8">
-      <c r="B368" s="9" t="n"/>
+      <c r="C368" s="9" t="n"/>
     </row>
     <row r="369" ht="15.5" customHeight="1" s="8">
-      <c r="B369" s="9" t="n"/>
+      <c r="C369" s="9" t="n"/>
     </row>
     <row r="370" ht="15.5" customFormat="1" customHeight="1" s="10">
-      <c r="B370" s="9" t="n"/>
+      <c r="C370" s="9" t="n"/>
     </row>
     <row r="371" ht="15.5" customFormat="1" customHeight="1" s="10">
-      <c r="B371" s="9" t="n"/>
+      <c r="C371" s="9" t="n"/>
     </row>
     <row r="372" ht="15.5" customHeight="1" s="8">
-      <c r="B372" s="9" t="n"/>
+      <c r="C372" s="9" t="n"/>
     </row>
     <row r="373" ht="15.5" customHeight="1" s="8">
-      <c r="B373" s="9" t="n"/>
+      <c r="C373" s="9" t="n"/>
     </row>
     <row r="374" ht="15.5" customHeight="1" s="8">
-      <c r="B374" s="3" t="n"/>
+      <c r="C374" s="3" t="n"/>
     </row>
     <row r="375" ht="15.5" customHeight="1" s="8">
-      <c r="B375" s="3" t="n"/>
+      <c r="C375" s="3" t="n"/>
     </row>
     <row r="376" ht="15.5" customHeight="1" s="8">
-      <c r="B376" s="3" t="n"/>
+      <c r="C376" s="3" t="n"/>
     </row>
     <row r="377" ht="15.5" customHeight="1" s="8">
-      <c r="B377" s="3" t="n"/>
+      <c r="C377" s="3" t="n"/>
     </row>
     <row r="378" ht="15.5" customHeight="1" s="8">
-      <c r="B378" s="9" t="n"/>
+      <c r="C378" s="9" t="n"/>
     </row>
     <row r="379" ht="15.5" customHeight="1" s="8">
-      <c r="B379" s="9" t="n"/>
+      <c r="C379" s="9" t="n"/>
     </row>
     <row r="380" ht="15.5" customHeight="1" s="8">
-      <c r="B380" s="9" t="n"/>
+      <c r="C380" s="9" t="n"/>
     </row>
     <row r="381" ht="15.5" customHeight="1" s="8">
-      <c r="B381" s="9" t="n"/>
+      <c r="C381" s="9" t="n"/>
     </row>
     <row r="382" ht="15.5" customHeight="1" s="8">
-      <c r="B382" s="9" t="n"/>
+      <c r="C382" s="9" t="n"/>
     </row>
     <row r="383" ht="15.5" customHeight="1" s="8">
-      <c r="B383" s="9" t="n"/>
+      <c r="C383" s="9" t="n"/>
     </row>
     <row r="384" ht="15.5" customHeight="1" s="8">
-      <c r="B384" s="9" t="n"/>
+      <c r="C384" s="9" t="n"/>
     </row>
     <row r="385" ht="15.5" customHeight="1" s="8">
-      <c r="B385" s="9" t="n"/>
+      <c r="C385" s="9" t="n"/>
     </row>
     <row r="386" ht="15.5" customHeight="1" s="8">
-      <c r="B386" s="9" t="n"/>
+      <c r="C386" s="9" t="n"/>
     </row>
     <row r="387" ht="15.5" customHeight="1" s="8">
-      <c r="B387" s="9" t="n"/>
+      <c r="C387" s="9" t="n"/>
     </row>
     <row r="388" ht="15.5" customHeight="1" s="8">
-      <c r="B388" s="9" t="n"/>
+      <c r="C388" s="9" t="n"/>
     </row>
     <row r="389" ht="15.5" customHeight="1" s="8">
-      <c r="B389" s="9" t="n"/>
+      <c r="C389" s="9" t="n"/>
     </row>
     <row r="390" ht="15.5" customHeight="1" s="8">
-      <c r="B390" s="9" t="n"/>
+      <c r="C390" s="9" t="n"/>
     </row>
     <row r="391" ht="15.5" customHeight="1" s="8">
-      <c r="B391" s="9" t="n"/>
+      <c r="C391" s="9" t="n"/>
     </row>
     <row r="392" ht="15.5" customHeight="1" s="8">
-      <c r="B392" s="9" t="n"/>
+      <c r="C392" s="9" t="n"/>
     </row>
     <row r="393" ht="15.5" customHeight="1" s="8">
-      <c r="B393" s="9" t="n"/>
+      <c r="C393" s="9" t="n"/>
     </row>
     <row r="394" ht="15.5" customHeight="1" s="8">
-      <c r="B394" s="9" t="n"/>
+      <c r="C394" s="9" t="n"/>
     </row>
     <row r="395" ht="15.5" customHeight="1" s="8">
-      <c r="B395" s="9" t="n"/>
+      <c r="C395" s="9" t="n"/>
     </row>
     <row r="396" ht="15.5" customHeight="1" s="8">
-      <c r="B396" s="9" t="n"/>
+      <c r="C396" s="9" t="n"/>
     </row>
     <row r="397" ht="15.5" customHeight="1" s="8">
-      <c r="B397" s="9" t="n"/>
+      <c r="C397" s="9" t="n"/>
     </row>
     <row r="398" ht="15.5" customHeight="1" s="8">
-      <c r="B398" s="9" t="n"/>
+      <c r="C398" s="9" t="n"/>
     </row>
     <row r="399" ht="15.5" customHeight="1" s="8">
-      <c r="B399" s="9" t="n"/>
+      <c r="C399" s="9" t="n"/>
     </row>
     <row r="400" ht="15.5" customHeight="1" s="8">
-      <c r="B400" s="9" t="n"/>
+      <c r="C400" s="9" t="n"/>
     </row>
     <row r="401" ht="15.5" customHeight="1" s="8">
-      <c r="B401" s="9" t="n"/>
+      <c r="C401" s="9" t="n"/>
     </row>
     <row r="402" ht="15.5" customHeight="1" s="8">
-      <c r="B402" s="9" t="n"/>
+      <c r="C402" s="9" t="n"/>
     </row>
     <row r="403" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B403" s="9" t="n"/>
-      <c r="J403" s="10" t="n"/>
+      <c r="C403" s="9" t="n"/>
+      <c r="K403" s="10" t="n"/>
     </row>
     <row r="404" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B404" s="9" t="n"/>
-      <c r="J404" s="10" t="n"/>
+      <c r="C404" s="9" t="n"/>
+      <c r="K404" s="10" t="n"/>
     </row>
     <row r="405" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B405" s="9" t="n"/>
-      <c r="J405" s="10" t="n"/>
+      <c r="C405" s="9" t="n"/>
+      <c r="K405" s="10" t="n"/>
     </row>
     <row r="406" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B406" s="9" t="n"/>
-      <c r="J406" s="10" t="n"/>
+      <c r="C406" s="9" t="n"/>
+      <c r="K406" s="10" t="n"/>
     </row>
     <row r="407" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B407" s="9" t="n"/>
-      <c r="J407" s="10" t="n"/>
+      <c r="C407" s="9" t="n"/>
+      <c r="K407" s="10" t="n"/>
     </row>
     <row r="408" ht="15.5" customHeight="1" s="8">
-      <c r="B408" s="9" t="n"/>
-      <c r="D408" s="1" t="n"/>
+      <c r="C408" s="9" t="n"/>
       <c r="E408" s="1" t="n"/>
       <c r="F408" s="1" t="n"/>
+      <c r="G408" s="1" t="n"/>
     </row>
     <row r="409" ht="15.5" customHeight="1" s="8">
-      <c r="B409" s="9" t="n"/>
-      <c r="D409" s="1" t="n"/>
+      <c r="C409" s="9" t="n"/>
       <c r="E409" s="1" t="n"/>
       <c r="F409" s="1" t="n"/>
+      <c r="G409" s="1" t="n"/>
     </row>
     <row r="410" ht="15.5" customFormat="1" customHeight="1" s="10">
-      <c r="B410" s="9" t="n"/>
-      <c r="D410" s="1" t="n"/>
+      <c r="C410" s="9" t="n"/>
       <c r="E410" s="1" t="n"/>
       <c r="F410" s="1" t="n"/>
+      <c r="G410" s="1" t="n"/>
     </row>
     <row r="411" ht="15.5" customFormat="1" customHeight="1" s="10">
-      <c r="B411" s="9" t="n"/>
-      <c r="D411" s="1" t="n"/>
+      <c r="C411" s="9" t="n"/>
       <c r="E411" s="1" t="n"/>
       <c r="F411" s="1" t="n"/>
+      <c r="G411" s="1" t="n"/>
     </row>
     <row r="412" ht="15.5" customFormat="1" customHeight="1" s="10">
-      <c r="B412" s="2" t="n"/>
-      <c r="D412" s="1" t="n"/>
+      <c r="C412" s="2" t="n"/>
       <c r="E412" s="1" t="n"/>
       <c r="F412" s="1" t="n"/>
+      <c r="G412" s="1" t="n"/>
     </row>
     <row r="413" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A413" s="1" t="n"/>
-      <c r="B413" s="2" t="n"/>
+      <c r="C413" s="2" t="n"/>
     </row>
     <row r="414" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A414" s="1" t="n"/>
-      <c r="B414" s="2" t="n"/>
-      <c r="D414" s="1" t="n"/>
+      <c r="C414" s="2" t="n"/>
       <c r="E414" s="1" t="n"/>
       <c r="F414" s="1" t="n"/>
+      <c r="G414" s="1" t="n"/>
     </row>
     <row r="415" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A415" s="1" t="n"/>
-      <c r="B415" s="2" t="n"/>
-      <c r="D415" s="1" t="n"/>
+      <c r="C415" s="2" t="n"/>
       <c r="E415" s="1" t="n"/>
       <c r="F415" s="1" t="n"/>
+      <c r="G415" s="1" t="n"/>
     </row>
     <row r="416" ht="15.5" customHeight="1" s="8">
       <c r="A416" s="1" t="n"/>
-      <c r="B416" s="2" t="n"/>
-      <c r="D416" s="1" t="n"/>
+      <c r="C416" s="2" t="n"/>
       <c r="E416" s="1" t="n"/>
       <c r="F416" s="1" t="n"/>
+      <c r="G416" s="1" t="n"/>
     </row>
     <row r="417" ht="15.5" customHeight="1" s="8">
       <c r="A417" s="1" t="n"/>
-      <c r="B417" s="2" t="n"/>
-      <c r="D417" s="1" t="n"/>
+      <c r="C417" s="2" t="n"/>
       <c r="E417" s="1" t="n"/>
       <c r="F417" s="1" t="n"/>
+      <c r="G417" s="1" t="n"/>
     </row>
     <row r="418" ht="15.5" customHeight="1" s="8">
       <c r="A418" s="1" t="n"/>
-      <c r="B418" s="2" t="n"/>
-      <c r="D418" s="1" t="n"/>
+      <c r="C418" s="2" t="n"/>
       <c r="E418" s="1" t="n"/>
       <c r="F418" s="1" t="n"/>
+      <c r="G418" s="1" t="n"/>
     </row>
     <row r="419" ht="15.5" customHeight="1" s="8">
       <c r="A419" s="1" t="n"/>
-      <c r="B419" s="2" t="n"/>
-      <c r="D419" s="1" t="n"/>
+      <c r="C419" s="2" t="n"/>
       <c r="E419" s="1" t="n"/>
       <c r="F419" s="1" t="n"/>
+      <c r="G419" s="1" t="n"/>
     </row>
     <row r="420" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A420" s="1" t="n"/>
-      <c r="B420" s="2" t="n"/>
-      <c r="D420" s="1" t="n"/>
+      <c r="C420" s="2" t="n"/>
       <c r="E420" s="1" t="n"/>
       <c r="F420" s="1" t="n"/>
+      <c r="G420" s="1" t="n"/>
     </row>
     <row r="421" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A421" s="1" t="n"/>
-      <c r="B421" s="2" t="n"/>
-      <c r="D421" s="1" t="n"/>
+      <c r="C421" s="2" t="n"/>
       <c r="E421" s="1" t="n"/>
       <c r="F421" s="1" t="n"/>
+      <c r="G421" s="1" t="n"/>
     </row>
     <row r="422" ht="15.5" customHeight="1" s="8">
       <c r="A422" s="1" t="n"/>
-      <c r="B422" s="2" t="n"/>
-      <c r="D422" s="1" t="n"/>
+      <c r="C422" s="2" t="n"/>
       <c r="E422" s="1" t="n"/>
       <c r="F422" s="1" t="n"/>
+      <c r="G422" s="1" t="n"/>
     </row>
     <row r="423" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A423" s="1" t="n"/>
-      <c r="B423" s="2" t="n"/>
-      <c r="D423" s="1" t="n"/>
+      <c r="C423" s="2" t="n"/>
       <c r="E423" s="1" t="n"/>
       <c r="F423" s="1" t="n"/>
+      <c r="G423" s="1" t="n"/>
     </row>
     <row r="424" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A424" s="1" t="n"/>
-      <c r="B424" s="9" t="n"/>
-      <c r="D424" s="1" t="n"/>
+      <c r="C424" s="9" t="n"/>
       <c r="E424" s="1" t="n"/>
       <c r="F424" s="1" t="n"/>
+      <c r="G424" s="1" t="n"/>
     </row>
     <row r="425" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A425" s="1" t="n"/>
-      <c r="B425" s="2" t="n"/>
-      <c r="D425" s="1" t="n"/>
+      <c r="C425" s="2" t="n"/>
       <c r="E425" s="1" t="n"/>
       <c r="F425" s="1" t="n"/>
       <c r="G425" s="1" t="n"/>
       <c r="H425" s="1" t="n"/>
       <c r="I425" s="1" t="n"/>
-      <c r="K425" s="1" t="n"/>
+      <c r="J425" s="1" t="n"/>
       <c r="L425" s="1" t="n"/>
       <c r="M425" s="1" t="n"/>
       <c r="N425" s="1" t="n"/>
+      <c r="O425" s="1" t="n"/>
     </row>
     <row r="426" ht="15.5" customHeight="1" s="8">
       <c r="A426" s="1" t="n"/>
-      <c r="B426" s="2" t="n"/>
-      <c r="D426" s="1" t="n"/>
+      <c r="C426" s="2" t="n"/>
       <c r="E426" s="1" t="n"/>
       <c r="F426" s="1" t="n"/>
       <c r="G426" s="1" t="n"/>
       <c r="H426" s="1" t="n"/>
       <c r="I426" s="1" t="n"/>
-      <c r="K426" s="1" t="n"/>
+      <c r="J426" s="1" t="n"/>
       <c r="L426" s="1" t="n"/>
       <c r="M426" s="1" t="n"/>
       <c r="N426" s="1" t="n"/>
+      <c r="O426" s="1" t="n"/>
     </row>
     <row r="427" ht="15.5" customHeight="1" s="8">
       <c r="A427" s="1" t="n"/>
-      <c r="B427" s="2" t="n"/>
-      <c r="D427" s="1" t="n"/>
+      <c r="C427" s="2" t="n"/>
       <c r="E427" s="1" t="n"/>
       <c r="F427" s="1" t="n"/>
       <c r="G427" s="1" t="n"/>
       <c r="H427" s="1" t="n"/>
       <c r="I427" s="1" t="n"/>
-      <c r="K427" s="1" t="n"/>
+      <c r="J427" s="1" t="n"/>
       <c r="L427" s="1" t="n"/>
       <c r="M427" s="1" t="n"/>
       <c r="N427" s="1" t="n"/>
+      <c r="O427" s="1" t="n"/>
     </row>
     <row r="428" ht="15.5" customHeight="1" s="8">
       <c r="A428" s="1" t="n"/>
-      <c r="B428" s="9" t="n"/>
-      <c r="D428" s="1" t="n"/>
+      <c r="C428" s="9" t="n"/>
       <c r="E428" s="1" t="n"/>
       <c r="F428" s="1" t="n"/>
       <c r="G428" s="1" t="n"/>
       <c r="H428" s="1" t="n"/>
       <c r="I428" s="1" t="n"/>
-      <c r="K428" s="1" t="n"/>
+      <c r="J428" s="1" t="n"/>
       <c r="L428" s="1" t="n"/>
       <c r="M428" s="1" t="n"/>
       <c r="N428" s="1" t="n"/>
+      <c r="O428" s="1" t="n"/>
     </row>
     <row r="429" ht="15.5" customHeight="1" s="8">
       <c r="A429" s="1" t="n"/>
-      <c r="B429" s="9" t="n"/>
-      <c r="D429" s="1" t="n"/>
+      <c r="C429" s="9" t="n"/>
       <c r="E429" s="1" t="n"/>
       <c r="F429" s="1" t="n"/>
       <c r="G429" s="1" t="n"/>
       <c r="H429" s="1" t="n"/>
       <c r="I429" s="1" t="n"/>
-      <c r="K429" s="1" t="n"/>
+      <c r="J429" s="1" t="n"/>
       <c r="L429" s="1" t="n"/>
       <c r="M429" s="1" t="n"/>
       <c r="N429" s="1" t="n"/>
+      <c r="O429" s="1" t="n"/>
     </row>
     <row r="430" ht="15.5" customHeight="1" s="8">
       <c r="A430" s="1" t="n"/>
-      <c r="B430" s="2" t="n"/>
-      <c r="D430" s="1" t="n"/>
+      <c r="C430" s="2" t="n"/>
       <c r="E430" s="1" t="n"/>
       <c r="F430" s="1" t="n"/>
       <c r="G430" s="1" t="n"/>
       <c r="H430" s="1" t="n"/>
       <c r="I430" s="1" t="n"/>
-      <c r="K430" s="1" t="n"/>
+      <c r="J430" s="1" t="n"/>
       <c r="L430" s="1" t="n"/>
       <c r="M430" s="1" t="n"/>
       <c r="N430" s="1" t="n"/>
+      <c r="O430" s="1" t="n"/>
     </row>
     <row r="431" ht="15.5" customHeight="1" s="8">
       <c r="A431" s="1" t="n"/>
-      <c r="B431" s="9" t="n"/>
-      <c r="D431" s="1" t="n"/>
+      <c r="C431" s="9" t="n"/>
       <c r="E431" s="1" t="n"/>
       <c r="F431" s="1" t="n"/>
       <c r="G431" s="1" t="n"/>
       <c r="H431" s="1" t="n"/>
       <c r="I431" s="1" t="n"/>
-      <c r="K431" s="1" t="n"/>
+      <c r="J431" s="1" t="n"/>
       <c r="L431" s="1" t="n"/>
       <c r="M431" s="1" t="n"/>
       <c r="N431" s="1" t="n"/>
+      <c r="O431" s="1" t="n"/>
     </row>
     <row r="432" ht="15.5" customHeight="1" s="8">
       <c r="A432" s="1" t="n"/>
-      <c r="B432" s="2" t="n"/>
-      <c r="D432" s="1" t="n"/>
+      <c r="C432" s="2" t="n"/>
       <c r="E432" s="1" t="n"/>
       <c r="F432" s="1" t="n"/>
       <c r="G432" s="1" t="n"/>
       <c r="H432" s="1" t="n"/>
       <c r="I432" s="1" t="n"/>
-      <c r="K432" s="1" t="n"/>
+      <c r="J432" s="1" t="n"/>
       <c r="L432" s="1" t="n"/>
       <c r="M432" s="1" t="n"/>
       <c r="N432" s="1" t="n"/>
+      <c r="O432" s="1" t="n"/>
     </row>
     <row r="433" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A433" s="1" t="n"/>
-      <c r="B433" s="2" t="n"/>
-      <c r="C433" s="1" t="n"/>
+      <c r="C433" s="2" t="n"/>
       <c r="D433" s="1" t="n"/>
       <c r="E433" s="1" t="n"/>
       <c r="F433" s="1" t="n"/>
       <c r="G433" s="1" t="n"/>
       <c r="H433" s="1" t="n"/>
       <c r="I433" s="1" t="n"/>
-      <c r="K433" s="1" t="n"/>
+      <c r="J433" s="1" t="n"/>
       <c r="L433" s="1" t="n"/>
       <c r="M433" s="1" t="n"/>
       <c r="N433" s="1" t="n"/>
+      <c r="O433" s="1" t="n"/>
     </row>
     <row r="434" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A434" s="1" t="n"/>
-      <c r="B434" s="2" t="n"/>
-      <c r="D434" s="1" t="n"/>
+      <c r="C434" s="2" t="n"/>
       <c r="E434" s="1" t="n"/>
       <c r="F434" s="1" t="n"/>
       <c r="G434" s="1" t="n"/>
       <c r="H434" s="1" t="n"/>
       <c r="I434" s="1" t="n"/>
-      <c r="K434" s="1" t="n"/>
+      <c r="J434" s="1" t="n"/>
       <c r="L434" s="1" t="n"/>
       <c r="M434" s="1" t="n"/>
       <c r="N434" s="1" t="n"/>
+      <c r="O434" s="1" t="n"/>
     </row>
     <row r="435" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A435" s="1" t="n"/>
-      <c r="B435" s="2" t="n"/>
-      <c r="D435" s="1" t="n"/>
+      <c r="C435" s="2" t="n"/>
       <c r="E435" s="1" t="n"/>
       <c r="F435" s="1" t="n"/>
       <c r="G435" s="1" t="n"/>
       <c r="H435" s="1" t="n"/>
       <c r="I435" s="1" t="n"/>
-      <c r="K435" s="1" t="n"/>
+      <c r="J435" s="1" t="n"/>
       <c r="L435" s="1" t="n"/>
       <c r="M435" s="1" t="n"/>
       <c r="N435" s="1" t="n"/>
+      <c r="O435" s="1" t="n"/>
     </row>
     <row r="436" ht="15.5" customHeight="1" s="8">
       <c r="A436" s="1" t="n"/>
-      <c r="B436" s="2" t="n"/>
-      <c r="D436" s="1" t="n"/>
+      <c r="C436" s="2" t="n"/>
       <c r="E436" s="1" t="n"/>
       <c r="F436" s="1" t="n"/>
       <c r="G436" s="1" t="n"/>
       <c r="H436" s="1" t="n"/>
       <c r="I436" s="1" t="n"/>
-      <c r="K436" s="1" t="n"/>
+      <c r="J436" s="1" t="n"/>
       <c r="L436" s="1" t="n"/>
       <c r="M436" s="1" t="n"/>
       <c r="N436" s="1" t="n"/>
+      <c r="O436" s="1" t="n"/>
     </row>
     <row r="437" ht="15.5" customHeight="1" s="8">
       <c r="A437" s="1" t="n"/>
-      <c r="B437" s="2" t="n"/>
-      <c r="D437" s="1" t="n"/>
+      <c r="C437" s="2" t="n"/>
       <c r="E437" s="1" t="n"/>
       <c r="F437" s="1" t="n"/>
       <c r="G437" s="1" t="n"/>
       <c r="H437" s="1" t="n"/>
       <c r="I437" s="1" t="n"/>
-      <c r="K437" s="1" t="n"/>
+      <c r="J437" s="1" t="n"/>
       <c r="L437" s="1" t="n"/>
       <c r="M437" s="1" t="n"/>
       <c r="N437" s="1" t="n"/>
+      <c r="O437" s="1" t="n"/>
     </row>
     <row r="438" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A438" s="1" t="n"/>
-      <c r="B438" s="2" t="n"/>
-      <c r="D438" s="1" t="n"/>
+      <c r="C438" s="2" t="n"/>
       <c r="E438" s="1" t="n"/>
       <c r="F438" s="1" t="n"/>
       <c r="G438" s="1" t="n"/>
       <c r="H438" s="1" t="n"/>
       <c r="I438" s="1" t="n"/>
-      <c r="K438" s="1" t="n"/>
+      <c r="J438" s="1" t="n"/>
       <c r="L438" s="1" t="n"/>
       <c r="M438" s="1" t="n"/>
       <c r="N438" s="1" t="n"/>
+      <c r="O438" s="1" t="n"/>
     </row>
     <row r="439" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A439" s="1" t="n"/>
-      <c r="B439" s="2" t="n"/>
-      <c r="D439" s="1" t="n"/>
+      <c r="C439" s="2" t="n"/>
       <c r="E439" s="1" t="n"/>
       <c r="F439" s="1" t="n"/>
       <c r="G439" s="1" t="n"/>
       <c r="H439" s="1" t="n"/>
       <c r="I439" s="1" t="n"/>
-      <c r="K439" s="1" t="n"/>
+      <c r="J439" s="1" t="n"/>
       <c r="L439" s="1" t="n"/>
       <c r="M439" s="1" t="n"/>
       <c r="N439" s="1" t="n"/>
+      <c r="O439" s="1" t="n"/>
     </row>
     <row r="440" ht="15.5" customHeight="1" s="8">
       <c r="A440" s="1" t="n"/>
-      <c r="B440" s="2" t="n"/>
-      <c r="D440" s="1" t="n"/>
+      <c r="C440" s="2" t="n"/>
       <c r="E440" s="1" t="n"/>
       <c r="F440" s="1" t="n"/>
       <c r="G440" s="1" t="n"/>
       <c r="H440" s="1" t="n"/>
       <c r="I440" s="1" t="n"/>
-      <c r="K440" s="1" t="n"/>
+      <c r="J440" s="1" t="n"/>
       <c r="L440" s="1" t="n"/>
       <c r="M440" s="1" t="n"/>
       <c r="N440" s="1" t="n"/>
+      <c r="O440" s="1" t="n"/>
     </row>
     <row r="441" ht="15.5" customHeight="1" s="8">
       <c r="A441" s="1" t="n"/>
-      <c r="B441" s="2" t="n"/>
-      <c r="D441" s="1" t="n"/>
+      <c r="C441" s="2" t="n"/>
       <c r="E441" s="1" t="n"/>
       <c r="F441" s="1" t="n"/>
       <c r="G441" s="1" t="n"/>
       <c r="H441" s="1" t="n"/>
       <c r="I441" s="1" t="n"/>
-      <c r="K441" s="1" t="n"/>
+      <c r="J441" s="1" t="n"/>
       <c r="L441" s="1" t="n"/>
       <c r="M441" s="1" t="n"/>
       <c r="N441" s="1" t="n"/>
+      <c r="O441" s="1" t="n"/>
     </row>
     <row r="442" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A442" s="1" t="n"/>
-      <c r="B442" s="9" t="n"/>
-      <c r="C442" s="1" t="n"/>
+      <c r="C442" s="9" t="n"/>
       <c r="D442" s="1" t="n"/>
       <c r="E442" s="1" t="n"/>
       <c r="F442" s="1" t="n"/>
       <c r="G442" s="1" t="n"/>
       <c r="H442" s="1" t="n"/>
       <c r="I442" s="1" t="n"/>
-      <c r="K442" s="1" t="n"/>
+      <c r="J442" s="1" t="n"/>
       <c r="L442" s="1" t="n"/>
       <c r="M442" s="1" t="n"/>
       <c r="N442" s="1" t="n"/>
+      <c r="O442" s="1" t="n"/>
     </row>
     <row r="443" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A443" s="1" t="n"/>
-      <c r="B443" s="9" t="n"/>
-      <c r="C443" s="1" t="n"/>
+      <c r="C443" s="9" t="n"/>
       <c r="D443" s="1" t="n"/>
       <c r="E443" s="1" t="n"/>
       <c r="F443" s="1" t="n"/>
       <c r="G443" s="1" t="n"/>
       <c r="H443" s="1" t="n"/>
       <c r="I443" s="1" t="n"/>
-      <c r="K443" s="1" t="n"/>
+      <c r="J443" s="1" t="n"/>
       <c r="L443" s="1" t="n"/>
       <c r="M443" s="1" t="n"/>
       <c r="N443" s="1" t="n"/>
+      <c r="O443" s="1" t="n"/>
     </row>
     <row r="444" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A444" s="1" t="n"/>
-      <c r="B444" s="9" t="n"/>
-      <c r="C444" s="1" t="n"/>
+      <c r="C444" s="9" t="n"/>
       <c r="D444" s="1" t="n"/>
       <c r="E444" s="1" t="n"/>
       <c r="F444" s="1" t="n"/>
       <c r="G444" s="1" t="n"/>
       <c r="H444" s="1" t="n"/>
       <c r="I444" s="1" t="n"/>
-      <c r="K444" s="1" t="n"/>
+      <c r="J444" s="1" t="n"/>
       <c r="L444" s="1" t="n"/>
       <c r="M444" s="1" t="n"/>
       <c r="N444" s="1" t="n"/>
+      <c r="O444" s="1" t="n"/>
     </row>
     <row r="445" ht="15.5" customHeight="1" s="8">
       <c r="A445" s="1" t="n"/>
-      <c r="B445" s="9" t="n"/>
-      <c r="C445" s="1" t="n"/>
+      <c r="C445" s="9" t="n"/>
       <c r="D445" s="1" t="n"/>
       <c r="E445" s="1" t="n"/>
       <c r="F445" s="1" t="n"/>
       <c r="G445" s="1" t="n"/>
       <c r="H445" s="1" t="n"/>
       <c r="I445" s="1" t="n"/>
-      <c r="K445" s="1" t="n"/>
+      <c r="J445" s="1" t="n"/>
       <c r="L445" s="1" t="n"/>
       <c r="M445" s="1" t="n"/>
       <c r="N445" s="1" t="n"/>
+      <c r="O445" s="1" t="n"/>
     </row>
     <row r="446" ht="15.5" customHeight="1" s="8">
       <c r="A446" s="1" t="n"/>
-      <c r="B446" s="9" t="n"/>
-      <c r="C446" s="1" t="n"/>
+      <c r="C446" s="9" t="n"/>
       <c r="D446" s="1" t="n"/>
       <c r="E446" s="1" t="n"/>
       <c r="F446" s="1" t="n"/>
       <c r="G446" s="1" t="n"/>
       <c r="H446" s="1" t="n"/>
       <c r="I446" s="1" t="n"/>
-      <c r="K446" s="1" t="n"/>
+      <c r="J446" s="1" t="n"/>
       <c r="L446" s="1" t="n"/>
       <c r="M446" s="1" t="n"/>
       <c r="N446" s="1" t="n"/>
+      <c r="O446" s="1" t="n"/>
     </row>
     <row r="447" ht="15.5" customHeight="1" s="8">
       <c r="A447" s="1" t="n"/>
-      <c r="B447" s="9" t="n"/>
-      <c r="C447" s="1" t="n"/>
+      <c r="C447" s="9" t="n"/>
       <c r="D447" s="1" t="n"/>
       <c r="E447" s="1" t="n"/>
       <c r="F447" s="1" t="n"/>
       <c r="G447" s="1" t="n"/>
       <c r="H447" s="1" t="n"/>
       <c r="I447" s="1" t="n"/>
-      <c r="K447" s="1" t="n"/>
+      <c r="J447" s="1" t="n"/>
       <c r="L447" s="1" t="n"/>
       <c r="M447" s="1" t="n"/>
       <c r="N447" s="1" t="n"/>
+      <c r="O447" s="1" t="n"/>
     </row>
     <row r="448" ht="15.5" customHeight="1" s="8">
       <c r="A448" s="1" t="n"/>
-      <c r="B448" s="9" t="n"/>
-      <c r="C448" s="1" t="n"/>
+      <c r="C448" s="9" t="n"/>
       <c r="D448" s="1" t="n"/>
       <c r="E448" s="1" t="n"/>
       <c r="F448" s="1" t="n"/>
       <c r="G448" s="1" t="n"/>
       <c r="H448" s="1" t="n"/>
       <c r="I448" s="1" t="n"/>
-      <c r="K448" s="1" t="n"/>
+      <c r="J448" s="1" t="n"/>
       <c r="L448" s="1" t="n"/>
       <c r="M448" s="1" t="n"/>
       <c r="N448" s="1" t="n"/>
+      <c r="O448" s="1" t="n"/>
     </row>
     <row r="449" ht="15.5" customHeight="1" s="8">
       <c r="A449" s="1" t="n"/>
-      <c r="B449" s="2" t="n"/>
-      <c r="C449" s="1" t="n"/>
+      <c r="C449" s="2" t="n"/>
       <c r="D449" s="1" t="n"/>
       <c r="E449" s="1" t="n"/>
       <c r="F449" s="1" t="n"/>
       <c r="G449" s="1" t="n"/>
       <c r="H449" s="1" t="n"/>
       <c r="I449" s="1" t="n"/>
-      <c r="K449" s="1" t="n"/>
+      <c r="J449" s="1" t="n"/>
       <c r="L449" s="1" t="n"/>
       <c r="M449" s="1" t="n"/>
       <c r="N449" s="1" t="n"/>
+      <c r="O449" s="1" t="n"/>
     </row>
     <row r="450" ht="15.5" customHeight="1" s="8">
       <c r="A450" s="1" t="n"/>
-      <c r="B450" s="9" t="n"/>
-      <c r="C450" s="1" t="n"/>
+      <c r="C450" s="9" t="n"/>
       <c r="D450" s="1" t="n"/>
       <c r="E450" s="1" t="n"/>
       <c r="F450" s="1" t="n"/>
       <c r="G450" s="1" t="n"/>
       <c r="H450" s="1" t="n"/>
       <c r="I450" s="1" t="n"/>
-      <c r="K450" s="1" t="n"/>
+      <c r="J450" s="1" t="n"/>
       <c r="L450" s="1" t="n"/>
       <c r="M450" s="1" t="n"/>
       <c r="N450" s="1" t="n"/>
+      <c r="O450" s="1" t="n"/>
     </row>
     <row r="451" ht="15.5" customHeight="1" s="8">
       <c r="A451" s="1" t="n"/>
-      <c r="B451" s="9" t="n"/>
-      <c r="C451" s="1" t="n"/>
+      <c r="C451" s="9" t="n"/>
       <c r="D451" s="1" t="n"/>
       <c r="E451" s="1" t="n"/>
       <c r="F451" s="1" t="n"/>
       <c r="G451" s="1" t="n"/>
       <c r="H451" s="1" t="n"/>
       <c r="I451" s="1" t="n"/>
-      <c r="K451" s="1" t="n"/>
+      <c r="J451" s="1" t="n"/>
       <c r="L451" s="1" t="n"/>
       <c r="M451" s="1" t="n"/>
       <c r="N451" s="1" t="n"/>
+      <c r="O451" s="1" t="n"/>
     </row>
     <row r="452" ht="15.5" customHeight="1" s="8">
       <c r="A452" s="1" t="n"/>
-      <c r="B452" s="2" t="n"/>
-      <c r="C452" s="1" t="n"/>
+      <c r="C452" s="2" t="n"/>
       <c r="D452" s="1" t="n"/>
       <c r="E452" s="1" t="n"/>
       <c r="F452" s="1" t="n"/>
       <c r="G452" s="1" t="n"/>
       <c r="H452" s="1" t="n"/>
       <c r="I452" s="1" t="n"/>
-      <c r="K452" s="1" t="n"/>
+      <c r="J452" s="1" t="n"/>
       <c r="L452" s="1" t="n"/>
       <c r="M452" s="1" t="n"/>
       <c r="N452" s="1" t="n"/>
+      <c r="O452" s="1" t="n"/>
     </row>
     <row r="453" ht="15.5" customHeight="1" s="8">
       <c r="A453" s="1" t="n"/>
-      <c r="B453" s="2" t="n"/>
-      <c r="C453" s="1" t="n"/>
+      <c r="C453" s="2" t="n"/>
       <c r="D453" s="1" t="n"/>
       <c r="E453" s="1" t="n"/>
       <c r="F453" s="1" t="n"/>
       <c r="G453" s="1" t="n"/>
       <c r="H453" s="1" t="n"/>
       <c r="I453" s="1" t="n"/>
-      <c r="K453" s="1" t="n"/>
+      <c r="J453" s="1" t="n"/>
       <c r="L453" s="1" t="n"/>
       <c r="M453" s="1" t="n"/>
       <c r="N453" s="1" t="n"/>
+      <c r="O453" s="1" t="n"/>
     </row>
     <row r="454" ht="15.5" customHeight="1" s="8">
       <c r="A454" s="1" t="n"/>
-      <c r="B454" s="9" t="n"/>
-      <c r="C454" s="1" t="n"/>
+      <c r="C454" s="9" t="n"/>
       <c r="D454" s="1" t="n"/>
       <c r="E454" s="1" t="n"/>
       <c r="F454" s="1" t="n"/>
       <c r="G454" s="1" t="n"/>
       <c r="H454" s="1" t="n"/>
       <c r="I454" s="1" t="n"/>
-      <c r="K454" s="1" t="n"/>
+      <c r="J454" s="1" t="n"/>
       <c r="L454" s="1" t="n"/>
       <c r="M454" s="1" t="n"/>
       <c r="N454" s="1" t="n"/>
+      <c r="O454" s="1" t="n"/>
     </row>
     <row r="455" ht="15.5" customHeight="1" s="8">
       <c r="A455" s="1" t="n"/>
-      <c r="B455" s="9" t="n"/>
-      <c r="C455" s="1" t="n"/>
+      <c r="C455" s="9" t="n"/>
       <c r="D455" s="1" t="n"/>
       <c r="E455" s="1" t="n"/>
       <c r="F455" s="1" t="n"/>
       <c r="G455" s="1" t="n"/>
       <c r="H455" s="1" t="n"/>
       <c r="I455" s="1" t="n"/>
-      <c r="K455" s="1" t="n"/>
+      <c r="J455" s="1" t="n"/>
       <c r="L455" s="1" t="n"/>
       <c r="M455" s="1" t="n"/>
       <c r="N455" s="1" t="n"/>
+      <c r="O455" s="1" t="n"/>
     </row>
     <row r="456" ht="15.5" customHeight="1" s="8">
       <c r="A456" s="1" t="n"/>
-      <c r="B456" s="9" t="n"/>
-      <c r="C456" s="1" t="n"/>
+      <c r="C456" s="9" t="n"/>
       <c r="D456" s="1" t="n"/>
       <c r="E456" s="1" t="n"/>
       <c r="F456" s="1" t="n"/>
       <c r="G456" s="1" t="n"/>
       <c r="H456" s="1" t="n"/>
       <c r="I456" s="1" t="n"/>
-      <c r="K456" s="1" t="n"/>
+      <c r="J456" s="1" t="n"/>
       <c r="L456" s="1" t="n"/>
       <c r="M456" s="1" t="n"/>
       <c r="N456" s="1" t="n"/>
+      <c r="O456" s="1" t="n"/>
     </row>
     <row r="457" ht="15.5" customHeight="1" s="8">
       <c r="A457" s="1" t="n"/>
-      <c r="B457" s="2" t="n"/>
-      <c r="C457" s="1" t="n"/>
+      <c r="C457" s="2" t="n"/>
       <c r="D457" s="1" t="n"/>
       <c r="E457" s="1" t="n"/>
       <c r="F457" s="1" t="n"/>
       <c r="G457" s="1" t="n"/>
       <c r="H457" s="1" t="n"/>
       <c r="I457" s="1" t="n"/>
-      <c r="K457" s="1" t="n"/>
+      <c r="J457" s="1" t="n"/>
       <c r="L457" s="1" t="n"/>
       <c r="M457" s="1" t="n"/>
       <c r="N457" s="1" t="n"/>
+      <c r="O457" s="1" t="n"/>
     </row>
     <row r="458" ht="15.5" customHeight="1" s="8">
       <c r="A458" s="1" t="n"/>
-      <c r="B458" s="9" t="n"/>
-      <c r="C458" s="1" t="n"/>
+      <c r="C458" s="9" t="n"/>
       <c r="D458" s="1" t="n"/>
       <c r="E458" s="1" t="n"/>
       <c r="F458" s="1" t="n"/>
       <c r="G458" s="1" t="n"/>
       <c r="H458" s="1" t="n"/>
       <c r="I458" s="1" t="n"/>
-      <c r="K458" s="1" t="n"/>
+      <c r="J458" s="1" t="n"/>
       <c r="L458" s="1" t="n"/>
       <c r="M458" s="1" t="n"/>
       <c r="N458" s="1" t="n"/>
+      <c r="O458" s="1" t="n"/>
     </row>
     <row r="459" ht="15.5" customHeight="1" s="8">
       <c r="A459" s="1" t="n"/>
-      <c r="B459" s="9" t="n"/>
-      <c r="C459" s="1" t="n"/>
+      <c r="C459" s="9" t="n"/>
       <c r="D459" s="1" t="n"/>
       <c r="E459" s="1" t="n"/>
       <c r="F459" s="1" t="n"/>
       <c r="G459" s="1" t="n"/>
       <c r="H459" s="1" t="n"/>
       <c r="I459" s="1" t="n"/>
-      <c r="K459" s="1" t="n"/>
+      <c r="J459" s="1" t="n"/>
       <c r="L459" s="1" t="n"/>
       <c r="M459" s="1" t="n"/>
       <c r="N459" s="1" t="n"/>
+      <c r="O459" s="1" t="n"/>
     </row>
     <row r="460" ht="15.5" customHeight="1" s="8">
       <c r="A460" s="1" t="n"/>
-      <c r="B460" s="2" t="n"/>
-      <c r="C460" s="1" t="n"/>
+      <c r="C460" s="2" t="n"/>
       <c r="D460" s="1" t="n"/>
       <c r="E460" s="1" t="n"/>
       <c r="F460" s="1" t="n"/>
       <c r="G460" s="1" t="n"/>
       <c r="H460" s="1" t="n"/>
       <c r="I460" s="1" t="n"/>
-      <c r="K460" s="1" t="n"/>
+      <c r="J460" s="1" t="n"/>
       <c r="L460" s="1" t="n"/>
       <c r="M460" s="1" t="n"/>
       <c r="N460" s="1" t="n"/>
+      <c r="O460" s="1" t="n"/>
     </row>
     <row r="461" ht="15.5" customHeight="1" s="8">
       <c r="A461" s="1" t="n"/>
-      <c r="B461" s="2" t="n"/>
-      <c r="C461" s="1" t="n"/>
+      <c r="C461" s="2" t="n"/>
       <c r="D461" s="1" t="n"/>
       <c r="E461" s="1" t="n"/>
       <c r="F461" s="1" t="n"/>
       <c r="G461" s="1" t="n"/>
       <c r="H461" s="1" t="n"/>
       <c r="I461" s="1" t="n"/>
-      <c r="K461" s="1" t="n"/>
+      <c r="J461" s="1" t="n"/>
       <c r="L461" s="1" t="n"/>
       <c r="M461" s="1" t="n"/>
       <c r="N461" s="1" t="n"/>
+      <c r="O461" s="1" t="n"/>
     </row>
     <row r="462" ht="15.5" customHeight="1" s="8">
       <c r="A462" s="1" t="n"/>
-      <c r="B462" s="2" t="n"/>
-      <c r="C462" s="1" t="n"/>
+      <c r="C462" s="2" t="n"/>
       <c r="D462" s="1" t="n"/>
       <c r="E462" s="1" t="n"/>
       <c r="F462" s="1" t="n"/>
       <c r="G462" s="1" t="n"/>
       <c r="H462" s="1" t="n"/>
       <c r="I462" s="1" t="n"/>
-      <c r="K462" s="1" t="n"/>
+      <c r="J462" s="1" t="n"/>
       <c r="L462" s="1" t="n"/>
       <c r="M462" s="1" t="n"/>
       <c r="N462" s="1" t="n"/>
+      <c r="O462" s="1" t="n"/>
     </row>
     <row r="463" ht="15.5" customHeight="1" s="8">
       <c r="A463" s="1" t="n"/>
-      <c r="B463" s="2" t="n"/>
-      <c r="C463" s="1" t="n"/>
+      <c r="C463" s="2" t="n"/>
       <c r="D463" s="1" t="n"/>
       <c r="E463" s="1" t="n"/>
       <c r="F463" s="1" t="n"/>
       <c r="G463" s="1" t="n"/>
       <c r="H463" s="1" t="n"/>
       <c r="I463" s="1" t="n"/>
-      <c r="K463" s="1" t="n"/>
+      <c r="J463" s="1" t="n"/>
       <c r="L463" s="1" t="n"/>
       <c r="M463" s="1" t="n"/>
       <c r="N463" s="1" t="n"/>
+      <c r="O463" s="1" t="n"/>
     </row>
     <row r="464" ht="15.5" customHeight="1" s="8">
       <c r="A464" s="1" t="n"/>
-      <c r="B464" s="9" t="n"/>
-      <c r="C464" s="1" t="n"/>
+      <c r="C464" s="9" t="n"/>
       <c r="D464" s="1" t="n"/>
       <c r="E464" s="1" t="n"/>
       <c r="F464" s="1" t="n"/>
       <c r="G464" s="1" t="n"/>
       <c r="H464" s="1" t="n"/>
       <c r="I464" s="1" t="n"/>
-      <c r="K464" s="1" t="n"/>
+      <c r="J464" s="1" t="n"/>
       <c r="L464" s="1" t="n"/>
       <c r="M464" s="1" t="n"/>
       <c r="N464" s="1" t="n"/>
+      <c r="O464" s="1" t="n"/>
     </row>
     <row r="465" ht="15.5" customHeight="1" s="8">
       <c r="A465" s="1" t="n"/>
-      <c r="B465" s="9" t="n"/>
-      <c r="C465" s="1" t="n"/>
+      <c r="C465" s="9" t="n"/>
       <c r="D465" s="1" t="n"/>
       <c r="E465" s="1" t="n"/>
       <c r="F465" s="1" t="n"/>
       <c r="G465" s="1" t="n"/>
       <c r="H465" s="1" t="n"/>
       <c r="I465" s="1" t="n"/>
-      <c r="K465" s="1" t="n"/>
+      <c r="J465" s="1" t="n"/>
       <c r="L465" s="1" t="n"/>
       <c r="M465" s="1" t="n"/>
       <c r="N465" s="1" t="n"/>
+      <c r="O465" s="1" t="n"/>
     </row>
     <row r="466" ht="15.5" customHeight="1" s="8">
       <c r="A466" s="1" t="n"/>
-      <c r="B466" s="9" t="n"/>
-      <c r="C466" s="1" t="n"/>
+      <c r="C466" s="9" t="n"/>
       <c r="D466" s="1" t="n"/>
       <c r="E466" s="1" t="n"/>
       <c r="F466" s="1" t="n"/>
       <c r="G466" s="1" t="n"/>
       <c r="H466" s="1" t="n"/>
       <c r="I466" s="1" t="n"/>
-      <c r="K466" s="1" t="n"/>
+      <c r="J466" s="1" t="n"/>
       <c r="L466" s="1" t="n"/>
       <c r="M466" s="1" t="n"/>
       <c r="N466" s="1" t="n"/>
+      <c r="O466" s="1" t="n"/>
     </row>
     <row r="467" ht="15.5" customHeight="1" s="8">
       <c r="A467" s="1" t="n"/>
-      <c r="B467" s="9" t="n"/>
-      <c r="C467" s="1" t="n"/>
+      <c r="C467" s="9" t="n"/>
       <c r="D467" s="1" t="n"/>
       <c r="E467" s="1" t="n"/>
       <c r="F467" s="1" t="n"/>
       <c r="G467" s="1" t="n"/>
       <c r="H467" s="1" t="n"/>
       <c r="I467" s="1" t="n"/>
-      <c r="K467" s="1" t="n"/>
+      <c r="J467" s="1" t="n"/>
       <c r="L467" s="1" t="n"/>
       <c r="M467" s="1" t="n"/>
       <c r="N467" s="1" t="n"/>
+      <c r="O467" s="1" t="n"/>
     </row>
     <row r="468" ht="15.5" customHeight="1" s="8">
       <c r="A468" s="1" t="n"/>
-      <c r="B468" s="9" t="n"/>
-      <c r="C468" s="1" t="n"/>
+      <c r="C468" s="9" t="n"/>
       <c r="D468" s="1" t="n"/>
       <c r="E468" s="1" t="n"/>
       <c r="F468" s="1" t="n"/>
       <c r="G468" s="1" t="n"/>
       <c r="H468" s="1" t="n"/>
       <c r="I468" s="1" t="n"/>
-      <c r="K468" s="1" t="n"/>
+      <c r="J468" s="1" t="n"/>
       <c r="L468" s="1" t="n"/>
       <c r="M468" s="1" t="n"/>
       <c r="N468" s="1" t="n"/>
+      <c r="O468" s="1" t="n"/>
     </row>
     <row r="469" ht="15.5" customFormat="1" customHeight="1" s="10">
       <c r="A469" s="1" t="n"/>
-      <c r="B469" s="9" t="n"/>
-      <c r="C469" s="1" t="n"/>
+      <c r="C469" s="9" t="n"/>
       <c r="D469" s="1" t="n"/>
       <c r="E469" s="1" t="n"/>
       <c r="F469" s="1" t="n"/>
       <c r="G469" s="1" t="n"/>
       <c r="H469" s="1" t="n"/>
       <c r="I469" s="1" t="n"/>
-      <c r="K469" s="1" t="n"/>
+      <c r="J469" s="1" t="n"/>
       <c r="L469" s="1" t="n"/>
       <c r="M469" s="1" t="n"/>
       <c r="N469" s="1" t="n"/>
+      <c r="O469" s="1" t="n"/>
     </row>
     <row r="470" ht="15.5" customHeight="1" s="8">
       <c r="A470" s="1" t="n"/>
-      <c r="B470" s="9" t="n"/>
-      <c r="C470" s="1" t="n"/>
+      <c r="C470" s="9" t="n"/>
       <c r="D470" s="1" t="n"/>
       <c r="E470" s="1" t="n"/>
       <c r="F470" s="1" t="n"/>
       <c r="G470" s="1" t="n"/>
       <c r="H470" s="1" t="n"/>
       <c r="I470" s="1" t="n"/>
-      <c r="K470" s="1" t="n"/>
+      <c r="J470" s="1" t="n"/>
       <c r="L470" s="1" t="n"/>
       <c r="M470" s="1" t="n"/>
       <c r="N470" s="1" t="n"/>
+      <c r="O470" s="1" t="n"/>
     </row>
     <row r="471" ht="15.5" customHeight="1" s="8">
       <c r="A471" s="1" t="n"/>
-      <c r="B471" s="9" t="n"/>
-      <c r="C471" s="1" t="n"/>
+      <c r="C471" s="9" t="n"/>
       <c r="D471" s="1" t="n"/>
       <c r="E471" s="1" t="n"/>
       <c r="F471" s="1" t="n"/>
       <c r="G471" s="1" t="n"/>
       <c r="H471" s="1" t="n"/>
       <c r="I471" s="1" t="n"/>
-      <c r="K471" s="1" t="n"/>
+      <c r="J471" s="1" t="n"/>
       <c r="L471" s="1" t="n"/>
       <c r="M471" s="1" t="n"/>
       <c r="N471" s="1" t="n"/>
+      <c r="O471" s="1" t="n"/>
     </row>
     <row r="472" ht="15.5" customHeight="1" s="8">
       <c r="A472" s="1" t="n"/>
-      <c r="B472" s="9" t="n"/>
-      <c r="C472" s="1" t="n"/>
+      <c r="C472" s="9" t="n"/>
       <c r="D472" s="1" t="n"/>
       <c r="E472" s="1" t="n"/>
       <c r="F472" s="1" t="n"/>
       <c r="G472" s="1" t="n"/>
       <c r="H472" s="1" t="n"/>
       <c r="I472" s="1" t="n"/>
-      <c r="K472" s="1" t="n"/>
+      <c r="J472" s="1" t="n"/>
       <c r="L472" s="1" t="n"/>
       <c r="M472" s="1" t="n"/>
       <c r="N472" s="1" t="n"/>
+      <c r="O472" s="1" t="n"/>
     </row>
     <row r="473" ht="15.5" customHeight="1" s="8">
       <c r="A473" s="1" t="n"/>
-      <c r="B473" s="9" t="n"/>
-      <c r="C473" s="1" t="n"/>
+      <c r="C473" s="9" t="n"/>
       <c r="D473" s="1" t="n"/>
       <c r="E473" s="1" t="n"/>
       <c r="F473" s="1" t="n"/>
       <c r="G473" s="1" t="n"/>
       <c r="H473" s="1" t="n"/>
       <c r="I473" s="1" t="n"/>
-      <c r="K473" s="1" t="n"/>
+      <c r="J473" s="1" t="n"/>
       <c r="L473" s="1" t="n"/>
       <c r="M473" s="1" t="n"/>
       <c r="N473" s="1" t="n"/>
+      <c r="O473" s="1" t="n"/>
     </row>
     <row r="474" ht="15.5" customHeight="1" s="8">
       <c r="A474" s="1" t="n"/>
-      <c r="B474" s="9" t="n"/>
-      <c r="C474" s="1" t="n"/>
+      <c r="C474" s="9" t="n"/>
       <c r="D474" s="1" t="n"/>
       <c r="E474" s="1" t="n"/>
       <c r="F474" s="1" t="n"/>
       <c r="G474" s="1" t="n"/>
       <c r="H474" s="1" t="n"/>
       <c r="I474" s="1" t="n"/>
-      <c r="K474" s="1" t="n"/>
+      <c r="J474" s="1" t="n"/>
       <c r="L474" s="1" t="n"/>
       <c r="M474" s="1" t="n"/>
       <c r="N474" s="1" t="n"/>
+      <c r="O474" s="1" t="n"/>
     </row>
     <row r="475" ht="15.5" customHeight="1" s="8">
       <c r="A475" s="1" t="n"/>
-      <c r="B475" s="9" t="n"/>
-      <c r="C475" s="1" t="n"/>
+      <c r="C475" s="9" t="n"/>
       <c r="D475" s="1" t="n"/>
       <c r="E475" s="1" t="n"/>
       <c r="F475" s="1" t="n"/>
       <c r="G475" s="1" t="n"/>
       <c r="H475" s="1" t="n"/>
       <c r="I475" s="1" t="n"/>
-      <c r="K475" s="1" t="n"/>
+      <c r="J475" s="1" t="n"/>
       <c r="L475" s="1" t="n"/>
       <c r="M475" s="1" t="n"/>
       <c r="N475" s="1" t="n"/>
+      <c r="O475" s="1" t="n"/>
     </row>
     <row r="476" ht="15.5" customHeight="1" s="8">
       <c r="A476" s="1" t="n"/>
-      <c r="B476" s="9" t="n"/>
-      <c r="C476" s="1" t="n"/>
+      <c r="C476" s="9" t="n"/>
       <c r="D476" s="1" t="n"/>
       <c r="E476" s="1" t="n"/>
       <c r="F476" s="1" t="n"/>
       <c r="G476" s="1" t="n"/>
       <c r="H476" s="1" t="n"/>
       <c r="I476" s="1" t="n"/>
-      <c r="K476" s="1" t="n"/>
+      <c r="J476" s="1" t="n"/>
       <c r="L476" s="1" t="n"/>
       <c r="M476" s="1" t="n"/>
       <c r="N476" s="1" t="n"/>
+      <c r="O476" s="1" t="n"/>
     </row>
     <row r="477" ht="15.5" customHeight="1" s="8">
       <c r="A477" s="1" t="n"/>
-      <c r="B477" s="9" t="n"/>
-      <c r="C477" s="1" t="n"/>
+      <c r="C477" s="9" t="n"/>
       <c r="D477" s="1" t="n"/>
       <c r="E477" s="1" t="n"/>
       <c r="F477" s="1" t="n"/>
       <c r="G477" s="1" t="n"/>
       <c r="H477" s="1" t="n"/>
       <c r="I477" s="1" t="n"/>
-      <c r="K477" s="1" t="n"/>
+      <c r="J477" s="1" t="n"/>
       <c r="L477" s="1" t="n"/>
       <c r="M477" s="1" t="n"/>
       <c r="N477" s="1" t="n"/>
+      <c r="O477" s="1" t="n"/>
     </row>
     <row r="478" ht="15.5" customHeight="1" s="8">
       <c r="A478" s="1" t="n"/>
-      <c r="B478" s="9" t="n"/>
-      <c r="C478" s="1" t="n"/>
+      <c r="C478" s="9" t="n"/>
       <c r="D478" s="1" t="n"/>
       <c r="E478" s="1" t="n"/>
       <c r="F478" s="1" t="n"/>
       <c r="G478" s="1" t="n"/>
       <c r="H478" s="1" t="n"/>
       <c r="I478" s="1" t="n"/>
-      <c r="K478" s="1" t="n"/>
+      <c r="J478" s="1" t="n"/>
       <c r="L478" s="1" t="n"/>
       <c r="M478" s="1" t="n"/>
       <c r="N478" s="1" t="n"/>
+      <c r="O478" s="1" t="n"/>
     </row>
     <row r="479" ht="15.5" customHeight="1" s="8">
       <c r="A479" s="1" t="n"/>
-      <c r="B479" s="9" t="n"/>
-      <c r="C479" s="1" t="n"/>
+      <c r="C479" s="9" t="n"/>
       <c r="D479" s="1" t="n"/>
       <c r="E479" s="1" t="n"/>
       <c r="F479" s="1" t="n"/>
       <c r="G479" s="1" t="n"/>
       <c r="H479" s="1" t="n"/>
       <c r="I479" s="1" t="n"/>
-      <c r="K479" s="1" t="n"/>
+      <c r="J479" s="1" t="n"/>
       <c r="L479" s="1" t="n"/>
       <c r="M479" s="1" t="n"/>
       <c r="N479" s="1" t="n"/>
+      <c r="O479" s="1" t="n"/>
     </row>
     <row r="480" ht="15.5" customHeight="1" s="8">
       <c r="A480" s="1" t="n"/>
-      <c r="B480" s="9" t="n"/>
-      <c r="C480" s="1" t="n"/>
+      <c r="C480" s="9" t="n"/>
       <c r="D480" s="1" t="n"/>
       <c r="E480" s="1" t="n"/>
       <c r="F480" s="1" t="n"/>
       <c r="G480" s="1" t="n"/>
       <c r="H480" s="1" t="n"/>
       <c r="I480" s="1" t="n"/>
-      <c r="K480" s="1" t="n"/>
+      <c r="J480" s="1" t="n"/>
       <c r="L480" s="1" t="n"/>
       <c r="M480" s="1" t="n"/>
       <c r="N480" s="1" t="n"/>
+      <c r="O480" s="1" t="n"/>
     </row>
     <row r="481" ht="15.5" customHeight="1" s="8">
       <c r="A481" s="1" t="n"/>
-      <c r="B481" s="9" t="n"/>
-      <c r="C481" s="1" t="n"/>
+      <c r="C481" s="9" t="n"/>
       <c r="D481" s="1" t="n"/>
       <c r="E481" s="1" t="n"/>
       <c r="F481" s="1" t="n"/>
       <c r="G481" s="1" t="n"/>
       <c r="H481" s="1" t="n"/>
       <c r="I481" s="1" t="n"/>
-      <c r="K481" s="1" t="n"/>
+      <c r="J481" s="1" t="n"/>
       <c r="L481" s="1" t="n"/>
       <c r="M481" s="1" t="n"/>
       <c r="N481" s="1" t="n"/>
+      <c r="O481" s="1" t="n"/>
     </row>
     <row r="482" ht="15.5" customHeight="1" s="8">
       <c r="A482" s="1" t="n"/>
-      <c r="B482" s="9" t="n"/>
-      <c r="C482" s="1" t="n"/>
+      <c r="C482" s="9" t="n"/>
       <c r="D482" s="1" t="n"/>
       <c r="E482" s="1" t="n"/>
       <c r="F482" s="1" t="n"/>
       <c r="G482" s="1" t="n"/>
       <c r="H482" s="1" t="n"/>
       <c r="I482" s="1" t="n"/>
-      <c r="K482" s="1" t="n"/>
+      <c r="J482" s="1" t="n"/>
       <c r="L482" s="1" t="n"/>
       <c r="M482" s="1" t="n"/>
       <c r="N482" s="1" t="n"/>
+      <c r="O482" s="1" t="n"/>
     </row>
     <row r="483" ht="15.5" customHeight="1" s="8">
       <c r="A483" s="1" t="n"/>
-      <c r="B483" s="9" t="n"/>
-      <c r="C483" s="1" t="n"/>
+      <c r="C483" s="9" t="n"/>
       <c r="D483" s="1" t="n"/>
       <c r="E483" s="1" t="n"/>
       <c r="F483" s="1" t="n"/>
       <c r="G483" s="1" t="n"/>
       <c r="H483" s="1" t="n"/>
       <c r="I483" s="1" t="n"/>
-      <c r="K483" s="1" t="n"/>
+      <c r="J483" s="1" t="n"/>
       <c r="L483" s="1" t="n"/>
       <c r="M483" s="1" t="n"/>
       <c r="N483" s="1" t="n"/>
+      <c r="O483" s="1" t="n"/>
     </row>
     <row r="484" ht="15.5" customHeight="1" s="8">
       <c r="A484" s="1" t="n"/>
-      <c r="B484" s="9" t="n"/>
-      <c r="C484" s="1" t="n"/>
+      <c r="C484" s="9" t="n"/>
       <c r="D484" s="1" t="n"/>
       <c r="E484" s="1" t="n"/>
       <c r="F484" s="1" t="n"/>
       <c r="G484" s="1" t="n"/>
       <c r="H484" s="1" t="n"/>
       <c r="I484" s="1" t="n"/>
-      <c r="K484" s="1" t="n"/>
+      <c r="J484" s="1" t="n"/>
       <c r="L484" s="1" t="n"/>
       <c r="M484" s="1" t="n"/>
       <c r="N484" s="1" t="n"/>
+      <c r="O484" s="1" t="n"/>
     </row>
     <row r="485" ht="15.5" customHeight="1" s="8">
       <c r="A485" s="1" t="n"/>
-      <c r="B485" s="9" t="n"/>
-      <c r="C485" s="1" t="n"/>
+      <c r="C485" s="9" t="n"/>
       <c r="D485" s="1" t="n"/>
       <c r="E485" s="1" t="n"/>
       <c r="F485" s="1" t="n"/>
       <c r="G485" s="1" t="n"/>
       <c r="H485" s="1" t="n"/>
       <c r="I485" s="1" t="n"/>
-      <c r="K485" s="1" t="n"/>
+      <c r="J485" s="1" t="n"/>
       <c r="L485" s="1" t="n"/>
       <c r="M485" s="1" t="n"/>
       <c r="N485" s="1" t="n"/>
+      <c r="O485" s="1" t="n"/>
     </row>
     <row r="486" ht="15.5" customHeight="1" s="8">
       <c r="A486" s="1" t="n"/>
-      <c r="B486" s="9" t="n"/>
-      <c r="C486" s="1" t="n"/>
+      <c r="C486" s="9" t="n"/>
       <c r="D486" s="1" t="n"/>
       <c r="E486" s="1" t="n"/>
       <c r="F486" s="1" t="n"/>
       <c r="G486" s="1" t="n"/>
       <c r="H486" s="1" t="n"/>
       <c r="I486" s="1" t="n"/>
-      <c r="K486" s="1" t="n"/>
+      <c r="J486" s="1" t="n"/>
       <c r="L486" s="1" t="n"/>
       <c r="M486" s="1" t="n"/>
       <c r="N486" s="1" t="n"/>
+      <c r="O486" s="1" t="n"/>
     </row>
     <row r="487" ht="15.5" customHeight="1" s="8">
       <c r="A487" s="1" t="n"/>
-      <c r="B487" s="9" t="n"/>
-      <c r="C487" s="1" t="n"/>
+      <c r="C487" s="9" t="n"/>
       <c r="D487" s="1" t="n"/>
       <c r="E487" s="1" t="n"/>
       <c r="F487" s="1" t="n"/>
       <c r="G487" s="1" t="n"/>
       <c r="H487" s="1" t="n"/>
       <c r="I487" s="1" t="n"/>
-      <c r="K487" s="1" t="n"/>
+      <c r="J487" s="1" t="n"/>
       <c r="L487" s="1" t="n"/>
       <c r="M487" s="1" t="n"/>
       <c r="N487" s="1" t="n"/>
+      <c r="O487" s="1" t="n"/>
     </row>
     <row r="488" ht="15.5" customHeight="1" s="8">
       <c r="A488" s="1" t="n"/>
-      <c r="B488" s="9" t="n"/>
-      <c r="C488" s="1" t="n"/>
+      <c r="C488" s="9" t="n"/>
       <c r="D488" s="1" t="n"/>
       <c r="E488" s="1" t="n"/>
       <c r="F488" s="1" t="n"/>
       <c r="G488" s="1" t="n"/>
       <c r="H488" s="1" t="n"/>
       <c r="I488" s="1" t="n"/>
-      <c r="K488" s="1" t="n"/>
+      <c r="J488" s="1" t="n"/>
       <c r="L488" s="1" t="n"/>
       <c r="M488" s="1" t="n"/>
       <c r="N488" s="1" t="n"/>
+      <c r="O488" s="1" t="n"/>
     </row>
     <row r="489" ht="15.5" customHeight="1" s="8">
       <c r="A489" s="1" t="n"/>
-      <c r="B489" s="9" t="n"/>
-      <c r="C489" s="1" t="n"/>
+      <c r="C489" s="9" t="n"/>
       <c r="D489" s="1" t="n"/>
       <c r="E489" s="1" t="n"/>
       <c r="F489" s="1" t="n"/>
       <c r="G489" s="1" t="n"/>
       <c r="H489" s="1" t="n"/>
       <c r="I489" s="1" t="n"/>
-      <c r="K489" s="1" t="n"/>
+      <c r="J489" s="1" t="n"/>
       <c r="L489" s="1" t="n"/>
       <c r="M489" s="1" t="n"/>
       <c r="N489" s="1" t="n"/>
+      <c r="O489" s="1" t="n"/>
     </row>
     <row r="490" ht="15.5" customHeight="1" s="8">
       <c r="A490" s="1" t="n"/>
-      <c r="B490" s="9" t="n"/>
-      <c r="C490" s="1" t="n"/>
+      <c r="C490" s="9" t="n"/>
       <c r="D490" s="1" t="n"/>
       <c r="E490" s="1" t="n"/>
       <c r="F490" s="1" t="n"/>
       <c r="G490" s="1" t="n"/>
       <c r="H490" s="1" t="n"/>
       <c r="I490" s="1" t="n"/>
-      <c r="K490" s="1" t="n"/>
+      <c r="J490" s="1" t="n"/>
       <c r="L490" s="1" t="n"/>
       <c r="M490" s="1" t="n"/>
       <c r="N490" s="1" t="n"/>
+      <c r="O490" s="1" t="n"/>
     </row>
     <row r="491" ht="15.5" customHeight="1" s="8">
       <c r="A491" s="1" t="n"/>
-      <c r="B491" s="2" t="n"/>
-      <c r="C491" s="1" t="n"/>
+      <c r="C491" s="2" t="n"/>
       <c r="D491" s="1" t="n"/>
       <c r="E491" s="1" t="n"/>
       <c r="F491" s="1" t="n"/>
       <c r="G491" s="1" t="n"/>
       <c r="H491" s="1" t="n"/>
       <c r="I491" s="1" t="n"/>
-      <c r="K491" s="1" t="n"/>
+      <c r="J491" s="1" t="n"/>
       <c r="L491" s="1" t="n"/>
       <c r="M491" s="1" t="n"/>
       <c r="N491" s="1" t="n"/>
+      <c r="O491" s="1" t="n"/>
     </row>
     <row r="492" ht="15.5" customHeight="1" s="8">
       <c r="A492" s="1" t="n"/>
-      <c r="B492" s="2" t="n"/>
-      <c r="C492" s="1" t="n"/>
+      <c r="C492" s="2" t="n"/>
       <c r="D492" s="1" t="n"/>
       <c r="E492" s="1" t="n"/>
       <c r="F492" s="1" t="n"/>
       <c r="G492" s="1" t="n"/>
       <c r="H492" s="1" t="n"/>
       <c r="I492" s="1" t="n"/>
-      <c r="K492" s="1" t="n"/>
+      <c r="J492" s="1" t="n"/>
       <c r="L492" s="1" t="n"/>
       <c r="M492" s="1" t="n"/>
       <c r="N492" s="1" t="n"/>
+      <c r="O492" s="1" t="n"/>
     </row>
     <row r="493" ht="15.5" customHeight="1" s="8">
       <c r="A493" s="1" t="n"/>
-      <c r="B493" s="9" t="n"/>
-      <c r="C493" s="1" t="n"/>
+      <c r="C493" s="9" t="n"/>
       <c r="D493" s="1" t="n"/>
       <c r="E493" s="1" t="n"/>
       <c r="F493" s="1" t="n"/>
       <c r="G493" s="1" t="n"/>
       <c r="H493" s="1" t="n"/>
       <c r="I493" s="1" t="n"/>
-      <c r="K493" s="1" t="n"/>
+      <c r="J493" s="1" t="n"/>
       <c r="L493" s="1" t="n"/>
       <c r="M493" s="1" t="n"/>
       <c r="N493" s="1" t="n"/>
+      <c r="O493" s="1" t="n"/>
     </row>
     <row r="494" ht="15.5" customHeight="1" s="8">
       <c r="A494" s="1" t="n"/>
-      <c r="B494" s="9" t="n"/>
-      <c r="C494" s="1" t="n"/>
+      <c r="C494" s="9" t="n"/>
       <c r="D494" s="1" t="n"/>
       <c r="E494" s="1" t="n"/>
       <c r="F494" s="1" t="n"/>
       <c r="G494" s="1" t="n"/>
       <c r="H494" s="1" t="n"/>
       <c r="I494" s="1" t="n"/>
-      <c r="K494" s="1" t="n"/>
+      <c r="J494" s="1" t="n"/>
       <c r="L494" s="1" t="n"/>
       <c r="M494" s="1" t="n"/>
       <c r="N494" s="1" t="n"/>
+      <c r="O494" s="1" t="n"/>
     </row>
     <row r="495" ht="15.5" customHeight="1" s="8">
       <c r="A495" s="1" t="n"/>
-      <c r="B495" s="9" t="n"/>
-      <c r="C495" s="1" t="n"/>
+      <c r="C495" s="9" t="n"/>
       <c r="D495" s="1" t="n"/>
       <c r="E495" s="1" t="n"/>
       <c r="F495" s="1" t="n"/>
       <c r="G495" s="1" t="n"/>
       <c r="H495" s="1" t="n"/>
       <c r="I495" s="1" t="n"/>
-      <c r="K495" s="1" t="n"/>
+      <c r="J495" s="1" t="n"/>
       <c r="L495" s="1" t="n"/>
       <c r="M495" s="1" t="n"/>
       <c r="N495" s="1" t="n"/>
+      <c r="O495" s="1" t="n"/>
     </row>
     <row r="496" ht="15.5" customHeight="1" s="8">
       <c r="A496" s="1" t="n"/>
-      <c r="B496" s="9" t="n"/>
-      <c r="C496" s="1" t="n"/>
+      <c r="C496" s="9" t="n"/>
       <c r="D496" s="1" t="n"/>
       <c r="E496" s="1" t="n"/>
       <c r="F496" s="1" t="n"/>
       <c r="G496" s="1" t="n"/>
       <c r="H496" s="1" t="n"/>
       <c r="I496" s="1" t="n"/>
-      <c r="K496" s="1" t="n"/>
+      <c r="J496" s="1" t="n"/>
       <c r="L496" s="1" t="n"/>
       <c r="M496" s="1" t="n"/>
       <c r="N496" s="1" t="n"/>
+      <c r="O496" s="1" t="n"/>
     </row>
     <row r="497" ht="15.5" customHeight="1" s="8">
       <c r="A497" s="1" t="n"/>
-      <c r="B497" s="9" t="n"/>
-      <c r="C497" s="1" t="n"/>
+      <c r="C497" s="9" t="n"/>
       <c r="D497" s="1" t="n"/>
       <c r="E497" s="1" t="n"/>
       <c r="F497" s="1" t="n"/>
       <c r="G497" s="1" t="n"/>
       <c r="H497" s="1" t="n"/>
       <c r="I497" s="1" t="n"/>
-      <c r="K497" s="1" t="n"/>
+      <c r="J497" s="1" t="n"/>
       <c r="L497" s="1" t="n"/>
       <c r="M497" s="1" t="n"/>
       <c r="N497" s="1" t="n"/>
+      <c r="O497" s="1" t="n"/>
     </row>
     <row r="498" ht="15.5" customHeight="1" s="8">
       <c r="A498" s="1" t="n"/>
-      <c r="B498" s="9" t="n"/>
-      <c r="C498" s="1" t="n"/>
+      <c r="C498" s="9" t="n"/>
       <c r="D498" s="1" t="n"/>
       <c r="E498" s="1" t="n"/>
       <c r="F498" s="1" t="n"/>
       <c r="G498" s="1" t="n"/>
       <c r="H498" s="1" t="n"/>
       <c r="I498" s="1" t="n"/>
-      <c r="K498" s="1" t="n"/>
+      <c r="J498" s="1" t="n"/>
       <c r="L498" s="1" t="n"/>
       <c r="M498" s="1" t="n"/>
       <c r="N498" s="1" t="n"/>
+      <c r="O498" s="1" t="n"/>
     </row>
     <row r="499" ht="15.5" customHeight="1" s="8">
       <c r="A499" s="1" t="n"/>
-      <c r="B499" s="9" t="n"/>
-      <c r="C499" s="1" t="n"/>
+      <c r="C499" s="9" t="n"/>
       <c r="D499" s="1" t="n"/>
       <c r="E499" s="1" t="n"/>
       <c r="F499" s="1" t="n"/>
       <c r="G499" s="1" t="n"/>
       <c r="H499" s="1" t="n"/>
       <c r="I499" s="1" t="n"/>
-      <c r="K499" s="1" t="n"/>
+      <c r="J499" s="1" t="n"/>
       <c r="L499" s="1" t="n"/>
       <c r="M499" s="1" t="n"/>
       <c r="N499" s="1" t="n"/>
+      <c r="O499" s="1" t="n"/>
     </row>
     <row r="500" ht="15.5" customHeight="1" s="8">
       <c r="A500" s="1" t="n"/>
-      <c r="B500" s="9" t="n"/>
-      <c r="C500" s="1" t="n"/>
+      <c r="C500" s="9" t="n"/>
       <c r="D500" s="1" t="n"/>
       <c r="E500" s="1" t="n"/>
       <c r="F500" s="1" t="n"/>
       <c r="G500" s="1" t="n"/>
       <c r="H500" s="1" t="n"/>
       <c r="I500" s="1" t="n"/>
-      <c r="K500" s="1" t="n"/>
+      <c r="J500" s="1" t="n"/>
       <c r="L500" s="1" t="n"/>
       <c r="M500" s="1" t="n"/>
       <c r="N500" s="1" t="n"/>
+      <c r="O500" s="1" t="n"/>
     </row>
     <row r="501" ht="15.5" customHeight="1" s="8">
       <c r="A501" s="1" t="n"/>
-      <c r="B501" s="9" t="n"/>
-      <c r="C501" s="1" t="n"/>
+      <c r="C501" s="9" t="n"/>
       <c r="D501" s="1" t="n"/>
       <c r="E501" s="1" t="n"/>
       <c r="F501" s="1" t="n"/>
       <c r="G501" s="1" t="n"/>
       <c r="H501" s="1" t="n"/>
       <c r="I501" s="1" t="n"/>
-      <c r="K501" s="1" t="n"/>
+      <c r="J501" s="1" t="n"/>
       <c r="L501" s="1" t="n"/>
       <c r="M501" s="1" t="n"/>
       <c r="N501" s="1" t="n"/>
+      <c r="O501" s="1" t="n"/>
     </row>
     <row r="502" ht="15.5" customHeight="1" s="8">
       <c r="A502" s="1" t="n"/>
-      <c r="B502" s="9" t="n"/>
-      <c r="C502" s="1" t="n"/>
+      <c r="C502" s="9" t="n"/>
       <c r="D502" s="1" t="n"/>
       <c r="E502" s="1" t="n"/>
       <c r="F502" s="1" t="n"/>
       <c r="G502" s="1" t="n"/>
       <c r="H502" s="1" t="n"/>
       <c r="I502" s="1" t="n"/>
-      <c r="K502" s="1" t="n"/>
+      <c r="J502" s="1" t="n"/>
       <c r="L502" s="1" t="n"/>
       <c r="M502" s="1" t="n"/>
       <c r="N502" s="1" t="n"/>
+      <c r="O502" s="1" t="n"/>
     </row>
     <row r="503" ht="15.5" customHeight="1" s="8">
       <c r="A503" s="1" t="n"/>
-      <c r="B503" s="9" t="n"/>
-      <c r="C503" s="1" t="n"/>
+      <c r="C503" s="9" t="n"/>
       <c r="D503" s="1" t="n"/>
       <c r="E503" s="1" t="n"/>
       <c r="F503" s="1" t="n"/>
       <c r="G503" s="1" t="n"/>
       <c r="H503" s="1" t="n"/>
       <c r="I503" s="1" t="n"/>
-      <c r="K503" s="1" t="n"/>
+      <c r="J503" s="1" t="n"/>
       <c r="L503" s="1" t="n"/>
       <c r="M503" s="1" t="n"/>
       <c r="N503" s="1" t="n"/>
+      <c r="O503" s="1" t="n"/>
     </row>
     <row r="504" ht="15.5" customHeight="1" s="8">
       <c r="A504" s="1" t="n"/>
-      <c r="B504" s="9" t="n"/>
-      <c r="C504" s="1" t="n"/>
+      <c r="C504" s="9" t="n"/>
       <c r="D504" s="1" t="n"/>
       <c r="E504" s="1" t="n"/>
       <c r="F504" s="1" t="n"/>
       <c r="G504" s="1" t="n"/>
       <c r="H504" s="1" t="n"/>
       <c r="I504" s="1" t="n"/>
-      <c r="K504" s="1" t="n"/>
+      <c r="J504" s="1" t="n"/>
       <c r="L504" s="1" t="n"/>
       <c r="M504" s="1" t="n"/>
       <c r="N504" s="1" t="n"/>
+      <c r="O504" s="1" t="n"/>
     </row>
     <row r="505" ht="15.5" customHeight="1" s="8">
       <c r="A505" s="1" t="n"/>
-      <c r="B505" s="2" t="n"/>
-      <c r="C505" s="1" t="n"/>
+      <c r="C505" s="2" t="n"/>
       <c r="D505" s="1" t="n"/>
       <c r="E505" s="1" t="n"/>
       <c r="F505" s="1" t="n"/>
       <c r="G505" s="1" t="n"/>
       <c r="H505" s="1" t="n"/>
       <c r="I505" s="1" t="n"/>
-      <c r="K505" s="1" t="n"/>
+      <c r="J505" s="1" t="n"/>
       <c r="L505" s="1" t="n"/>
       <c r="M505" s="1" t="n"/>
       <c r="N505" s="1" t="n"/>
+      <c r="O505" s="1" t="n"/>
     </row>
     <row r="506" ht="15.5" customHeight="1" s="8">
       <c r="A506" s="1" t="n"/>
-      <c r="B506" s="2" t="n"/>
-      <c r="C506" s="1" t="n"/>
+      <c r="C506" s="2" t="n"/>
       <c r="D506" s="1" t="n"/>
       <c r="E506" s="1" t="n"/>
       <c r="F506" s="1" t="n"/>
       <c r="G506" s="1" t="n"/>
       <c r="H506" s="1" t="n"/>
       <c r="I506" s="1" t="n"/>
-      <c r="K506" s="1" t="n"/>
+      <c r="J506" s="1" t="n"/>
       <c r="L506" s="1" t="n"/>
       <c r="M506" s="1" t="n"/>
       <c r="N506" s="1" t="n"/>
+      <c r="O506" s="1" t="n"/>
     </row>
     <row r="507" ht="15.5" customHeight="1" s="8">
       <c r="A507" s="1" t="n"/>
-      <c r="B507" s="2" t="n"/>
-      <c r="C507" s="1" t="n"/>
+      <c r="C507" s="2" t="n"/>
       <c r="D507" s="1" t="n"/>
       <c r="E507" s="1" t="n"/>
       <c r="F507" s="1" t="n"/>
       <c r="G507" s="1" t="n"/>
       <c r="H507" s="1" t="n"/>
       <c r="I507" s="1" t="n"/>
-      <c r="K507" s="1" t="n"/>
+      <c r="J507" s="1" t="n"/>
       <c r="L507" s="1" t="n"/>
       <c r="M507" s="1" t="n"/>
       <c r="N507" s="1" t="n"/>
+      <c r="O507" s="1" t="n"/>
     </row>
     <row r="508" ht="15.5" customHeight="1" s="8">
       <c r="A508" s="1" t="n"/>
-      <c r="B508" s="2" t="n"/>
-      <c r="C508" s="1" t="n"/>
+      <c r="C508" s="2" t="n"/>
       <c r="D508" s="1" t="n"/>
       <c r="E508" s="1" t="n"/>
       <c r="F508" s="1" t="n"/>
       <c r="G508" s="1" t="n"/>
       <c r="H508" s="1" t="n"/>
       <c r="I508" s="1" t="n"/>
-      <c r="K508" s="1" t="n"/>
+      <c r="J508" s="1" t="n"/>
       <c r="L508" s="1" t="n"/>
       <c r="M508" s="1" t="n"/>
       <c r="N508" s="1" t="n"/>
+      <c r="O508" s="1" t="n"/>
     </row>
     <row r="509" ht="15.5" customHeight="1" s="8">
       <c r="A509" s="1" t="n"/>
-      <c r="B509" s="2" t="n"/>
-      <c r="C509" s="1" t="n"/>
+      <c r="C509" s="2" t="n"/>
       <c r="D509" s="1" t="n"/>
       <c r="E509" s="1" t="n"/>
       <c r="F509" s="1" t="n"/>
       <c r="G509" s="1" t="n"/>
       <c r="H509" s="1" t="n"/>
       <c r="I509" s="1" t="n"/>
-      <c r="K509" s="1" t="n"/>
+      <c r="J509" s="1" t="n"/>
       <c r="L509" s="1" t="n"/>
       <c r="M509" s="1" t="n"/>
       <c r="N509" s="1" t="n"/>
+      <c r="O509" s="1" t="n"/>
     </row>
     <row r="510" ht="15.5" customHeight="1" s="8">
       <c r="A510" s="1" t="n"/>
-      <c r="B510" s="2" t="n"/>
-      <c r="C510" s="1" t="n"/>
+      <c r="C510" s="2" t="n"/>
       <c r="D510" s="1" t="n"/>
       <c r="E510" s="1" t="n"/>
       <c r="F510" s="1" t="n"/>
       <c r="G510" s="1" t="n"/>
       <c r="H510" s="1" t="n"/>
       <c r="I510" s="1" t="n"/>
-      <c r="K510" s="1" t="n"/>
+      <c r="J510" s="1" t="n"/>
       <c r="L510" s="1" t="n"/>
       <c r="M510" s="1" t="n"/>
       <c r="N510" s="1" t="n"/>
+      <c r="O510" s="1" t="n"/>
     </row>
     <row r="511" ht="15.5" customHeight="1" s="8">
       <c r="A511" s="1" t="n"/>
-      <c r="B511" s="2" t="n"/>
-      <c r="C511" s="1" t="n"/>
+      <c r="C511" s="2" t="n"/>
       <c r="D511" s="1" t="n"/>
       <c r="E511" s="1" t="n"/>
       <c r="F511" s="1" t="n"/>
       <c r="G511" s="1" t="n"/>
       <c r="H511" s="1" t="n"/>
       <c r="I511" s="1" t="n"/>
-      <c r="K511" s="1" t="n"/>
+      <c r="J511" s="1" t="n"/>
       <c r="L511" s="1" t="n"/>
       <c r="M511" s="1" t="n"/>
       <c r="N511" s="1" t="n"/>
+      <c r="O511" s="1" t="n"/>
     </row>
     <row r="512" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B512" s="2" t="n"/>
-      <c r="J512" s="10" t="n"/>
+      <c r="C512" s="2" t="n"/>
+      <c r="K512" s="10" t="n"/>
     </row>
     <row r="513" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B513" s="2" t="n"/>
-      <c r="J513" s="10" t="n"/>
+      <c r="C513" s="2" t="n"/>
+      <c r="K513" s="10" t="n"/>
     </row>
     <row r="514" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B514" s="9" t="n"/>
-      <c r="J514" s="10" t="n"/>
+      <c r="C514" s="9" t="n"/>
+      <c r="K514" s="10" t="n"/>
     </row>
     <row r="515" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B515" s="9" t="n"/>
-      <c r="J515" s="10" t="n"/>
+      <c r="C515" s="9" t="n"/>
+      <c r="K515" s="10" t="n"/>
     </row>
     <row r="516" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B516" s="2" t="n"/>
-      <c r="J516" s="10" t="n"/>
+      <c r="C516" s="2" t="n"/>
+      <c r="K516" s="10" t="n"/>
     </row>
     <row r="517" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B517" s="2" t="n"/>
-      <c r="J517" s="10" t="n"/>
+      <c r="C517" s="2" t="n"/>
+      <c r="K517" s="10" t="n"/>
     </row>
     <row r="518" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B518" s="9" t="n"/>
-      <c r="J518" s="10" t="n"/>
+      <c r="C518" s="9" t="n"/>
+      <c r="K518" s="10" t="n"/>
     </row>
     <row r="519" ht="15.5" customHeight="1" s="8">
-      <c r="B519" s="9" t="n"/>
+      <c r="C519" s="9" t="n"/>
     </row>
     <row r="520" ht="15.5" customHeight="1" s="8">
-      <c r="B520" s="9" t="n"/>
+      <c r="C520" s="9" t="n"/>
     </row>
     <row r="521" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B521" s="9" t="n"/>
-      <c r="J521" s="10" t="n"/>
+      <c r="C521" s="9" t="n"/>
+      <c r="K521" s="10" t="n"/>
     </row>
     <row r="522" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B522" s="9" t="n"/>
-      <c r="J522" s="10" t="n"/>
+      <c r="C522" s="9" t="n"/>
+      <c r="K522" s="10" t="n"/>
     </row>
     <row r="523" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B523" s="9" t="n"/>
-      <c r="J523" s="10" t="n"/>
+      <c r="C523" s="9" t="n"/>
+      <c r="K523" s="10" t="n"/>
     </row>
     <row r="524" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B524" s="9" t="n"/>
-      <c r="J524" s="10" t="n"/>
+      <c r="C524" s="9" t="n"/>
+      <c r="K524" s="10" t="n"/>
     </row>
     <row r="525" ht="15.5" customHeight="1" s="8">
-      <c r="B525" s="9" t="n"/>
+      <c r="C525" s="9" t="n"/>
     </row>
     <row r="526" ht="15.5" customHeight="1" s="8">
-      <c r="B526" s="9" t="n"/>
+      <c r="C526" s="9" t="n"/>
     </row>
     <row r="527" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B527" s="9" t="n"/>
-      <c r="J527" s="10" t="n"/>
+      <c r="C527" s="9" t="n"/>
+      <c r="K527" s="10" t="n"/>
     </row>
     <row r="528" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B528" s="9" t="n"/>
-      <c r="J528" s="10" t="n"/>
+      <c r="C528" s="9" t="n"/>
+      <c r="K528" s="10" t="n"/>
     </row>
     <row r="529" ht="15.5" customHeight="1" s="8">
       <c r="A529" s="1" t="n"/>
-      <c r="B529" s="9" t="n"/>
-      <c r="C529" s="1" t="n"/>
+      <c r="C529" s="9" t="n"/>
       <c r="D529" s="1" t="n"/>
       <c r="E529" s="1" t="n"/>
       <c r="F529" s="1" t="n"/>
+      <c r="G529" s="1" t="n"/>
     </row>
     <row r="530" ht="15.5" customHeight="1" s="8">
       <c r="A530" s="1" t="n"/>
-      <c r="B530" s="9" t="n"/>
-      <c r="C530" s="1" t="n"/>
+      <c r="C530" s="9" t="n"/>
       <c r="D530" s="1" t="n"/>
       <c r="E530" s="1" t="n"/>
       <c r="F530" s="1" t="n"/>
+      <c r="G530" s="1" t="n"/>
     </row>
     <row r="531" ht="15.5" customHeight="1" s="8">
       <c r="A531" s="1" t="n"/>
-      <c r="B531" s="9" t="n"/>
-      <c r="C531" s="1" t="n"/>
+      <c r="C531" s="9" t="n"/>
       <c r="D531" s="1" t="n"/>
       <c r="E531" s="1" t="n"/>
       <c r="F531" s="1" t="n"/>
+      <c r="G531" s="1" t="n"/>
     </row>
     <row r="532" ht="15.5" customHeight="1" s="8">
       <c r="A532" s="1" t="n"/>
-      <c r="B532" s="9" t="n"/>
-      <c r="C532" s="1" t="n"/>
+      <c r="C532" s="9" t="n"/>
       <c r="D532" s="1" t="n"/>
       <c r="E532" s="1" t="n"/>
       <c r="F532" s="1" t="n"/>
+      <c r="G532" s="1" t="n"/>
     </row>
     <row r="533" ht="15.5" customHeight="1" s="8">
       <c r="A533" s="1" t="n"/>
-      <c r="B533" s="9" t="n"/>
-      <c r="C533" s="1" t="n"/>
+      <c r="C533" s="9" t="n"/>
       <c r="D533" s="1" t="n"/>
       <c r="E533" s="1" t="n"/>
       <c r="F533" s="1" t="n"/>
+      <c r="G533" s="1" t="n"/>
     </row>
     <row r="534" ht="15.5" customHeight="1" s="8">
       <c r="A534" s="1" t="n"/>
-      <c r="B534" s="9" t="n"/>
-      <c r="C534" s="1" t="n"/>
+      <c r="C534" s="9" t="n"/>
       <c r="D534" s="1" t="n"/>
       <c r="E534" s="1" t="n"/>
       <c r="F534" s="1" t="n"/>
+      <c r="G534" s="1" t="n"/>
     </row>
     <row r="535" ht="15.5" customHeight="1" s="8">
       <c r="A535" s="1" t="n"/>
-      <c r="B535" s="9" t="n"/>
-      <c r="C535" s="1" t="n"/>
+      <c r="C535" s="9" t="n"/>
       <c r="D535" s="1" t="n"/>
       <c r="E535" s="1" t="n"/>
       <c r="F535" s="1" t="n"/>
+      <c r="G535" s="1" t="n"/>
     </row>
     <row r="536" ht="15.5" customHeight="1" s="8">
       <c r="A536" s="1" t="n"/>
-      <c r="B536" s="9" t="n"/>
-      <c r="C536" s="1" t="n"/>
+      <c r="C536" s="9" t="n"/>
       <c r="D536" s="1" t="n"/>
       <c r="E536" s="1" t="n"/>
       <c r="F536" s="1" t="n"/>
+      <c r="G536" s="1" t="n"/>
     </row>
     <row r="537" ht="15.5" customHeight="1" s="8">
-      <c r="B537" s="9" t="n"/>
-      <c r="C537" s="1" t="n"/>
+      <c r="C537" s="9" t="n"/>
+      <c r="D537" s="1" t="n"/>
     </row>
     <row r="538" ht="15.5" customHeight="1" s="8">
-      <c r="B538" s="9" t="n"/>
-      <c r="C538" s="1" t="n"/>
+      <c r="C538" s="9" t="n"/>
+      <c r="D538" s="1" t="n"/>
     </row>
     <row r="539" ht="15.5" customHeight="1" s="8">
-      <c r="B539" s="9" t="n"/>
-      <c r="C539" s="1" t="n"/>
+      <c r="C539" s="9" t="n"/>
+      <c r="D539" s="1" t="n"/>
     </row>
     <row r="540" ht="15.5" customHeight="1" s="8">
-      <c r="B540" s="9" t="n"/>
-      <c r="C540" s="1" t="n"/>
+      <c r="C540" s="9" t="n"/>
+      <c r="D540" s="1" t="n"/>
     </row>
     <row r="541" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B541" s="9" t="n"/>
-      <c r="J541" s="10" t="n"/>
+      <c r="C541" s="9" t="n"/>
+      <c r="K541" s="10" t="n"/>
     </row>
     <row r="542" ht="15.5" customFormat="1" customHeight="1" s="1">
-      <c r="B542" s="9" t="n"/>
-      <c r="J542" s="10" t="n"/>
+      <c r="C542" s="9" t="n"/>
+      <c r="K542" s="10" t="n"/>
     </row>
     <row r="543" ht="15.5" customHeight="1" s="8">
-      <c r="B543" s="9" t="n"/>
-      <c r="C543" s="1" t="n"/>
+      <c r="C543" s="9" t="n"/>
+      <c r="D543" s="1" t="n"/>
     </row>
     <row r="544" ht="15.5" customHeight="1" s="8">
-      <c r="B544" s="9" t="n"/>
-      <c r="C544" s="1" t="n"/>
+      <c r="C544" s="9" t="n"/>
+      <c r="D544" s="1" t="n"/>
     </row>
     <row r="545" ht="15.5" customHeight="1" s="8">
-      <c r="B545" s="9" t="n"/>
-      <c r="C545" s="1" t="n"/>
+      <c r="C545" s="9" t="n"/>
+      <c r="D545" s="1" t="n"/>
     </row>
     <row r="546" ht="15.5" customHeight="1" s="8">
-      <c r="B546" s="9" t="n"/>
-      <c r="C546" s="1" t="n"/>
+      <c r="C546" s="9" t="n"/>
+      <c r="D546" s="1" t="n"/>
     </row>
     <row r="547" ht="13.5" customHeight="1" s="8">
       <c r="A547" s="1" t="n"/>
-      <c r="B547" s="9" t="n"/>
-      <c r="C547" s="1" t="n"/>
+      <c r="C547" s="9" t="n"/>
       <c r="D547" s="1" t="n"/>
       <c r="E547" s="1" t="n"/>
       <c r="F547" s="1" t="n"/>
+      <c r="G547" s="1" t="n"/>
     </row>
     <row r="548" ht="13.5" customHeight="1" s="8">
       <c r="A548" s="1" t="n"/>
-      <c r="B548" s="9" t="n"/>
-      <c r="C548" s="1" t="n"/>
+      <c r="C548" s="9" t="n"/>
       <c r="D548" s="1" t="n"/>
       <c r="E548" s="1" t="n"/>
       <c r="F548" s="1" t="n"/>
+      <c r="G548" s="1" t="n"/>
     </row>
     <row r="549" ht="15.5" customHeight="1" s="8">
       <c r="A549" s="1" t="n"/>
-      <c r="B549" s="9" t="n"/>
-      <c r="C549" s="1" t="n"/>
+      <c r="C549" s="9" t="n"/>
+      <c r="D549" s="1" t="n"/>
     </row>
     <row r="550" ht="15.5" customHeight="1" s="8">
       <c r="A550" s="1" t="n"/>
-      <c r="B550" s="9" t="n"/>
-      <c r="C550" s="1" t="n"/>
+      <c r="C550" s="9" t="n"/>
+      <c r="D550" s="1" t="n"/>
     </row>
     <row r="551" ht="15.5" customHeight="1" s="8">
       <c r="A551" s="1" t="n"/>
-      <c r="B551" s="9" t="n"/>
-      <c r="C551" s="1" t="n"/>
+      <c r="C551" s="9" t="n"/>
+      <c r="D551" s="1" t="n"/>
     </row>
     <row r="552" ht="15.5" customHeight="1" s="8">
       <c r="A552" s="1" t="n"/>
-      <c r="B552" s="9" t="n"/>
-      <c r="C552" s="1" t="n"/>
+      <c r="C552" s="9" t="n"/>
+      <c r="D552" s="1" t="n"/>
     </row>
     <row r="553" ht="15.5" customHeight="1" s="8">
       <c r="A553" s="1" t="n"/>
-      <c r="B553" s="9" t="n"/>
-      <c r="C553" s="1" t="n"/>
+      <c r="C553" s="9" t="n"/>
+      <c r="D553" s="1" t="n"/>
     </row>
     <row r="554" ht="15.5" customHeight="1" s="8">
       <c r="A554" s="1" t="n"/>
-      <c r="B554" s="9" t="n"/>
-      <c r="C554" s="1" t="n"/>
+      <c r="C554" s="9" t="n"/>
+      <c r="D554" s="1" t="n"/>
     </row>
     <row r="555" ht="15.5" customHeight="1" s="8">
       <c r="A555" s="1" t="n"/>
-      <c r="B555" s="9" t="n"/>
-      <c r="C555" s="1" t="n"/>
+      <c r="C555" s="9" t="n"/>
+      <c r="D555" s="1" t="n"/>
     </row>
     <row r="556" ht="13.5" customHeight="1" s="8">
       <c r="A556" s="1" t="n"/>
-      <c r="B556" s="9" t="n"/>
-      <c r="C556" s="1" t="n"/>
+      <c r="C556" s="9" t="n"/>
       <c r="D556" s="1" t="n"/>
       <c r="E556" s="1" t="n"/>
       <c r="F556" s="1" t="n"/>
+      <c r="G556" s="1" t="n"/>
     </row>
     <row r="557" ht="13.5" customHeight="1" s="8">
       <c r="A557" s="1" t="n"/>
-      <c r="B557" s="9" t="n"/>
-      <c r="C557" s="1" t="n"/>
+      <c r="C557" s="9" t="n"/>
       <c r="D557" s="1" t="n"/>
       <c r="E557" s="1" t="n"/>
       <c r="F557" s="1" t="n"/>
+      <c r="G557" s="1" t="n"/>
     </row>
     <row r="558" ht="15.5" customHeight="1" s="8">
       <c r="A558" s="1" t="n"/>
-      <c r="B558" s="9" t="n"/>
-      <c r="C558" s="1" t="n"/>
+      <c r="C558" s="9" t="n"/>
+      <c r="D558" s="1" t="n"/>
     </row>
     <row r="559" ht="15.5" customHeight="1" s="8">
       <c r="A559" s="1" t="n"/>
-      <c r="B559" s="9" t="n"/>
-      <c r="C559" s="1" t="n"/>
+      <c r="C559" s="9" t="n"/>
+      <c r="D559" s="1" t="n"/>
     </row>
     <row r="560" ht="15.5" customHeight="1" s="8">
       <c r="A560" s="1" t="n"/>
-      <c r="B560" s="9" t="n"/>
-      <c r="C560" s="1" t="n"/>
+      <c r="C560" s="9" t="n"/>
+      <c r="D560" s="1" t="n"/>
     </row>
     <row r="561" ht="15.5" customHeight="1" s="8">
       <c r="A561" s="1" t="n"/>
-      <c r="B561" s="9" t="n"/>
-      <c r="C561" s="1" t="n"/>
+      <c r="C561" s="9" t="n"/>
+      <c r="D561" s="1" t="n"/>
     </row>
     <row r="562" ht="15.5" customHeight="1" s="8">
       <c r="A562" s="1" t="n"/>
-      <c r="B562" s="9" t="n"/>
-      <c r="C562" s="1" t="n"/>
+      <c r="C562" s="9" t="n"/>
+      <c r="D562" s="1" t="n"/>
     </row>
     <row r="563" ht="15.5" customHeight="1" s="8">
       <c r="A563" s="1" t="n"/>
-      <c r="B563" s="9" t="n"/>
-      <c r="C563" s="1" t="n"/>
+      <c r="C563" s="9" t="n"/>
+      <c r="D563" s="1" t="n"/>
     </row>
     <row r="564" ht="15.5" customHeight="1" s="8">
       <c r="A564" s="1" t="n"/>
-      <c r="B564" s="9" t="n"/>
-      <c r="C564" s="1" t="n"/>
+      <c r="C564" s="9" t="n"/>
+      <c r="D564" s="1" t="n"/>
     </row>
     <row r="565" ht="15.5" customHeight="1" s="8">
       <c r="A565" s="1" t="n"/>
-      <c r="B565" s="9" t="n"/>
-      <c r="C565" s="1" t="n"/>
+      <c r="C565" s="9" t="n"/>
+      <c r="D565" s="1" t="n"/>
     </row>
     <row r="566" ht="15.5" customHeight="1" s="8">
       <c r="A566" s="1" t="n"/>
-      <c r="B566" s="9" t="n"/>
-      <c r="C566" s="1" t="n"/>
+      <c r="C566" s="9" t="n"/>
+      <c r="D566" s="1" t="n"/>
     </row>
     <row r="567" ht="15.5" customHeight="1" s="8">
       <c r="A567" s="1" t="n"/>
-      <c r="B567" s="9" t="n"/>
-      <c r="C567" s="1" t="n"/>
+      <c r="C567" s="9" t="n"/>
+      <c r="D567" s="1" t="n"/>
     </row>
     <row r="568" ht="15.5" customHeight="1" s="8">
       <c r="A568" s="1" t="n"/>
-      <c r="B568" s="9" t="n"/>
-      <c r="C568" s="1" t="n"/>
+      <c r="C568" s="9" t="n"/>
+      <c r="D568" s="1" t="n"/>
     </row>
     <row r="569" ht="15.5" customHeight="1" s="8">
       <c r="A569" s="1" t="n"/>
-      <c r="B569" s="9" t="n"/>
-      <c r="C569" s="1" t="n"/>
+      <c r="C569" s="9" t="n"/>
+      <c r="D569" s="1" t="n"/>
     </row>
     <row r="570" ht="15.5" customHeight="1" s="8">
       <c r="A570" s="1" t="n"/>
-      <c r="B570" s="9" t="n"/>
-      <c r="C570" s="1" t="n"/>
+      <c r="C570" s="9" t="n"/>
+      <c r="D570" s="1" t="n"/>
     </row>
     <row r="571" ht="15.5" customHeight="1" s="8">
       <c r="A571" s="1" t="n"/>
-      <c r="B571" s="9" t="n"/>
-      <c r="C571" s="1" t="n"/>
+      <c r="C571" s="9" t="n"/>
+      <c r="D571" s="1" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n"/>
-      <c r="B572" s="10" t="n"/>
-      <c r="C572" s="1" t="n"/>
+      <c r="C572" s="10" t="n"/>
+      <c r="D572" s="1" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n"/>
-      <c r="B573" s="10" t="n"/>
-      <c r="C573" s="1" t="n"/>
+      <c r="C573" s="10" t="n"/>
+      <c r="D573" s="1" t="n"/>
     </row>
     <row r="574" ht="15.5" customHeight="1" s="8">
       <c r="A574" s="1" t="n"/>
-      <c r="B574" s="9" t="n"/>
-      <c r="C574" s="1" t="n"/>
+      <c r="C574" s="9" t="n"/>
+      <c r="D574" s="1" t="n"/>
     </row>
     <row r="575" ht="15.5" customHeight="1" s="8">
       <c r="A575" s="1" t="n"/>
-      <c r="B575" s="9" t="n"/>
-      <c r="C575" s="1" t="n"/>
+      <c r="C575" s="9" t="n"/>
+      <c r="D575" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
